--- a/interfaceTesting/接口测试用例.xlsx
+++ b/interfaceTesting/接口测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
   <si>
     <t>用例编号</t>
   </si>
@@ -73,7 +73,7 @@
     <t>请求失败并返回相应错误代码</t>
   </si>
   <si>
-    <t>{"code":1,"data":{},"error":“无领取权限"}</t>
+    <t>{"code":1,"data":{},"error":"无领取权限"}</t>
   </si>
   <si>
     <t>{"couponId":"183"}</t>
@@ -98,6 +98,21 @@
   </si>
   <si>
     <t>{"size":50,"pointName":"北京","page":1}</t>
+  </si>
+  <si>
+    <t>明星媒体</t>
+  </si>
+  <si>
+    <t>是否正常获取明星媒体</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/adv/faster/meida/list</t>
+  </si>
+  <si>
+    <t>get</t>
+  </si>
+  <si>
+    <t>{"size":3,"page":1}</t>
   </si>
 </sst>
 </file>
@@ -105,12 +120,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="24">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -119,15 +134,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="9"/>
-      <color indexed="30"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -141,30 +162,17 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -177,10 +185,83 @@
     </font>
     <font>
       <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -192,43 +273,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="15"/>
       <color theme="3"/>
@@ -237,9 +281,17 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -252,37 +304,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -293,187 +314,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -484,15 +505,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -507,15 +519,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -544,17 +547,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -574,6 +571,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -584,57 +596,63 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -643,114 +661,114 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="23" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="23" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1075,7 +1093,7 @@
   <dimension ref="A1:L200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I3" sqref="I3"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1085,14 +1103,14 @@
     <col min="4" max="4" width="23.1666666666667"/>
     <col min="5" max="5" width="7.83333333333333"/>
     <col min="6" max="6" width="31.375" customWidth="1"/>
-    <col min="7" max="7" width="12"/>
+    <col min="7" max="7" width="19.875" customWidth="1"/>
     <col min="8" max="8" width="15"/>
     <col min="9" max="9" width="18.8333333333333"/>
     <col min="10" max="10" width="19.3333333333333"/>
     <col min="11" max="19" width="10.8333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" ht="40.5" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1126,7 +1144,7 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
     </row>
@@ -1137,28 +1155,30 @@
       <c r="B2" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C2" s="3" t="s">
+      <c r="C2" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="H2" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="L2">
+      <c r="J2" s="2"/>
+      <c r="K2" s="2"/>
+      <c r="L2" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1169,28 +1189,30 @@
       <c r="B3" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="C3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="3" t="s">
+      <c r="F3" s="1" t="s">
         <v>16</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H3" s="3" t="s">
+      <c r="H3" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I3" s="3" t="s">
+      <c r="I3" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L3">
+      <c r="J3" s="2"/>
+      <c r="K3" s="2"/>
+      <c r="L3" s="2">
         <v>2</v>
       </c>
     </row>
@@ -1204,621 +1226,655 @@
       <c r="C4" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="L4">
+      <c r="J4" s="2"/>
+      <c r="K4" s="2"/>
+      <c r="L4" s="2">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="5:5">
-      <c r="E5" s="1"/>
+    <row r="5" ht="40.5" spans="1:12">
+      <c r="A5" s="2">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="I5" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="5:5">
-      <c r="E6" s="1"/>
+      <c r="E6" s="4"/>
     </row>
     <row r="7" spans="5:5">
-      <c r="E7" s="1"/>
+      <c r="E7" s="4"/>
     </row>
     <row r="8" spans="5:5">
-      <c r="E8" s="1"/>
+      <c r="E8" s="4"/>
     </row>
     <row r="9" spans="5:5">
-      <c r="E9" s="1"/>
+      <c r="E9" s="4"/>
     </row>
     <row r="10" spans="5:5">
-      <c r="E10" s="1"/>
+      <c r="E10" s="4"/>
     </row>
     <row r="11" spans="5:5">
-      <c r="E11" s="1"/>
+      <c r="E11" s="4"/>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="1"/>
+      <c r="E12" s="4"/>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="1"/>
+      <c r="E13" s="4"/>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="1"/>
+      <c r="E14" s="4"/>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="1"/>
+      <c r="E15" s="4"/>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="1"/>
+      <c r="E16" s="4"/>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="1"/>
+      <c r="E17" s="4"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="1"/>
+      <c r="E18" s="4"/>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="1"/>
+      <c r="E19" s="4"/>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="1"/>
+      <c r="E20" s="4"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="1"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="1"/>
+      <c r="E22" s="4"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="1"/>
+      <c r="E23" s="4"/>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="1"/>
+      <c r="E24" s="4"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="1"/>
+      <c r="E25" s="4"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="1"/>
+      <c r="E26" s="4"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="1"/>
+      <c r="E27" s="4"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="1"/>
+      <c r="E28" s="4"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="1"/>
+      <c r="E29" s="4"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="1"/>
+      <c r="E30" s="4"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="1"/>
+      <c r="E31" s="4"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="1"/>
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="1"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="1"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="1"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="1"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="1"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="1"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="1"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="1"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="1"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="1"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="1"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="1"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="1"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="1"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="1"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="1"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="1"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="1"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="1"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="1"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="1"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="1"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="1"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="1"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="1"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="1"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="1"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="1"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="1"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="1"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="5:5">
-      <c r="E63" s="1"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="5:5">
-      <c r="E64" s="1"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="1"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="1"/>
+      <c r="E66" s="4"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="1"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="1"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="1"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="1"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="1"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="1"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="1"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="1"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="5:5">
-      <c r="E75" s="1"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="1"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="1"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="1"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="5:5">
-      <c r="E79" s="1"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="5:5">
-      <c r="E80" s="1"/>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="1"/>
+      <c r="E81" s="4"/>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="1"/>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="1"/>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="1"/>
+      <c r="E84" s="4"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="1"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="1"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="1"/>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="5:5">
-      <c r="E88" s="1"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="1"/>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="1"/>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="1"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="1"/>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="1"/>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="5:5">
-      <c r="E94" s="1"/>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="5:5">
-      <c r="E95" s="1"/>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="1"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="1"/>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="1"/>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="1"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="5:5">
-      <c r="E100" s="1"/>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="5:5">
-      <c r="E101" s="1"/>
+      <c r="E101" s="4"/>
     </row>
     <row r="102" spans="5:5">
-      <c r="E102" s="1"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="5:5">
-      <c r="E103" s="1"/>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="5:5">
-      <c r="E104" s="1"/>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="1"/>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="5:5">
-      <c r="E106" s="1"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="5:5">
-      <c r="E107" s="1"/>
+      <c r="E107" s="4"/>
     </row>
     <row r="108" spans="5:5">
-      <c r="E108" s="1"/>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="1"/>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="1"/>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="1"/>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="1"/>
+      <c r="E112" s="4"/>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="1"/>
+      <c r="E113" s="4"/>
     </row>
     <row r="114" spans="5:5">
-      <c r="E114" s="1"/>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="1"/>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="1"/>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="1"/>
+      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="1"/>
+      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="1"/>
+      <c r="E119" s="4"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="1"/>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="1"/>
+      <c r="E121" s="4"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="1"/>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="1"/>
+      <c r="E123" s="4"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="1"/>
+      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="1"/>
+      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="1"/>
+      <c r="E126" s="4"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="1"/>
+      <c r="E127" s="4"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="1"/>
+      <c r="E128" s="4"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="1"/>
+      <c r="E129" s="4"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="1"/>
+      <c r="E130" s="4"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="1"/>
+      <c r="E131" s="4"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="1"/>
+      <c r="E132" s="4"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="1"/>
+      <c r="E133" s="4"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="1"/>
+      <c r="E134" s="4"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="1"/>
+      <c r="E135" s="4"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="1"/>
+      <c r="E136" s="4"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="1"/>
+      <c r="E137" s="4"/>
     </row>
     <row r="138" spans="5:5">
-      <c r="E138" s="1"/>
+      <c r="E138" s="4"/>
     </row>
     <row r="139" spans="5:5">
-      <c r="E139" s="1"/>
+      <c r="E139" s="4"/>
     </row>
     <row r="140" spans="5:5">
-      <c r="E140" s="1"/>
+      <c r="E140" s="4"/>
     </row>
     <row r="141" spans="5:5">
-      <c r="E141" s="1"/>
+      <c r="E141" s="4"/>
     </row>
     <row r="142" spans="5:5">
-      <c r="E142" s="1"/>
+      <c r="E142" s="4"/>
     </row>
     <row r="143" spans="5:5">
-      <c r="E143" s="1"/>
+      <c r="E143" s="4"/>
     </row>
     <row r="144" spans="5:5">
-      <c r="E144" s="1"/>
+      <c r="E144" s="4"/>
     </row>
     <row r="145" spans="5:5">
-      <c r="E145" s="1"/>
+      <c r="E145" s="4"/>
     </row>
     <row r="146" spans="5:5">
-      <c r="E146" s="1"/>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="5:5">
-      <c r="E147" s="1"/>
+      <c r="E147" s="4"/>
     </row>
     <row r="148" spans="5:5">
-      <c r="E148" s="1"/>
+      <c r="E148" s="4"/>
     </row>
     <row r="149" spans="5:5">
-      <c r="E149" s="1"/>
+      <c r="E149" s="4"/>
     </row>
     <row r="150" spans="5:5">
-      <c r="E150" s="1"/>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="5:5">
-      <c r="E151" s="1"/>
+      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="5:5">
-      <c r="E152" s="1"/>
+      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="5:5">
-      <c r="E153" s="1"/>
+      <c r="E153" s="4"/>
     </row>
     <row r="154" spans="5:5">
-      <c r="E154" s="1"/>
+      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="5:5">
-      <c r="E155" s="1"/>
+      <c r="E155" s="4"/>
     </row>
     <row r="156" spans="5:5">
-      <c r="E156" s="1"/>
+      <c r="E156" s="4"/>
     </row>
     <row r="157" spans="5:5">
-      <c r="E157" s="1"/>
+      <c r="E157" s="4"/>
     </row>
     <row r="158" spans="5:5">
-      <c r="E158" s="1"/>
+      <c r="E158" s="4"/>
     </row>
     <row r="159" spans="5:5">
-      <c r="E159" s="1"/>
+      <c r="E159" s="4"/>
     </row>
     <row r="160" spans="5:5">
-      <c r="E160" s="1"/>
+      <c r="E160" s="4"/>
     </row>
     <row r="161" spans="5:5">
-      <c r="E161" s="1"/>
+      <c r="E161" s="4"/>
     </row>
     <row r="162" spans="5:5">
-      <c r="E162" s="1"/>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="5:5">
-      <c r="E163" s="1"/>
+      <c r="E163" s="4"/>
     </row>
     <row r="164" spans="5:5">
-      <c r="E164" s="1"/>
+      <c r="E164" s="4"/>
     </row>
     <row r="165" spans="5:5">
-      <c r="E165" s="1"/>
+      <c r="E165" s="4"/>
     </row>
     <row r="166" spans="5:5">
-      <c r="E166" s="1"/>
+      <c r="E166" s="4"/>
     </row>
     <row r="167" spans="5:5">
-      <c r="E167" s="1"/>
+      <c r="E167" s="4"/>
     </row>
     <row r="168" spans="5:5">
-      <c r="E168" s="1"/>
+      <c r="E168" s="4"/>
     </row>
     <row r="169" spans="5:5">
-      <c r="E169" s="1"/>
+      <c r="E169" s="4"/>
     </row>
     <row r="170" spans="5:5">
-      <c r="E170" s="1"/>
+      <c r="E170" s="4"/>
     </row>
     <row r="171" spans="5:5">
-      <c r="E171" s="1"/>
+      <c r="E171" s="4"/>
     </row>
     <row r="172" spans="5:5">
-      <c r="E172" s="1"/>
+      <c r="E172" s="4"/>
     </row>
     <row r="173" spans="5:5">
-      <c r="E173" s="1"/>
+      <c r="E173" s="4"/>
     </row>
     <row r="174" spans="5:5">
-      <c r="E174" s="1"/>
+      <c r="E174" s="4"/>
     </row>
     <row r="175" spans="5:5">
-      <c r="E175" s="1"/>
+      <c r="E175" s="4"/>
     </row>
     <row r="176" spans="5:5">
-      <c r="E176" s="1"/>
+      <c r="E176" s="4"/>
     </row>
     <row r="177" spans="5:5">
-      <c r="E177" s="1"/>
+      <c r="E177" s="4"/>
     </row>
     <row r="178" spans="5:5">
-      <c r="E178" s="1"/>
+      <c r="E178" s="4"/>
     </row>
     <row r="179" spans="5:5">
-      <c r="E179" s="1"/>
+      <c r="E179" s="4"/>
     </row>
     <row r="180" spans="5:5">
-      <c r="E180" s="1"/>
+      <c r="E180" s="4"/>
     </row>
     <row r="181" spans="5:5">
-      <c r="E181" s="1"/>
+      <c r="E181" s="4"/>
     </row>
     <row r="182" spans="5:5">
-      <c r="E182" s="1"/>
+      <c r="E182" s="4"/>
     </row>
     <row r="183" spans="5:5">
-      <c r="E183" s="1"/>
+      <c r="E183" s="4"/>
     </row>
     <row r="184" spans="5:5">
-      <c r="E184" s="1"/>
+      <c r="E184" s="4"/>
     </row>
     <row r="185" spans="5:5">
-      <c r="E185" s="1"/>
+      <c r="E185" s="4"/>
     </row>
     <row r="186" spans="5:5">
-      <c r="E186" s="1"/>
+      <c r="E186" s="4"/>
     </row>
     <row r="187" spans="5:5">
-      <c r="E187" s="1"/>
+      <c r="E187" s="4"/>
     </row>
     <row r="188" spans="5:5">
-      <c r="E188" s="1"/>
+      <c r="E188" s="4"/>
     </row>
     <row r="189" spans="5:5">
-      <c r="E189" s="1"/>
+      <c r="E189" s="4"/>
     </row>
     <row r="190" spans="5:5">
-      <c r="E190" s="1"/>
+      <c r="E190" s="4"/>
     </row>
     <row r="191" spans="5:5">
-      <c r="E191" s="1"/>
+      <c r="E191" s="4"/>
     </row>
     <row r="192" spans="5:5">
-      <c r="E192" s="1"/>
+      <c r="E192" s="4"/>
     </row>
     <row r="193" spans="5:5">
-      <c r="E193" s="1"/>
+      <c r="E193" s="4"/>
     </row>
     <row r="194" spans="5:5">
-      <c r="E194" s="1"/>
+      <c r="E194" s="4"/>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="1"/>
+      <c r="E195" s="4"/>
     </row>
     <row r="196" spans="5:5">
-      <c r="E196" s="1"/>
+      <c r="E196" s="4"/>
     </row>
     <row r="197" spans="5:5">
-      <c r="E197" s="1"/>
+      <c r="E197" s="4"/>
     </row>
     <row r="198" spans="5:5">
-      <c r="E198" s="1"/>
+      <c r="E198" s="4"/>
     </row>
     <row r="199" spans="5:5">
-      <c r="E199" s="1"/>
+      <c r="E199" s="4"/>
     </row>
     <row r="200" spans="5:5">
-      <c r="E200" s="1"/>
+      <c r="E200" s="4"/>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://115.236.35.106:9000/api/product/coupon/receiver"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://115.236.35.106:9000/api/product/coupon/receiver"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://192.168.0.211:9000/api/faster/radar/point/data/search"/>
+    <hyperlink ref="D2" r:id="rId1" display="http://115.236.35.106:9000/api/product/coupon/receiver" tooltip="http://115.236.35.106:9000/api/product/coupon/receiver"/>
+    <hyperlink ref="D3" r:id="rId1" display="http://115.236.35.106:9000/api/product/coupon/receiver" tooltip="http://115.236.35.106:9000/api/product/coupon/receiver"/>
+    <hyperlink ref="D4" r:id="rId2" display="http://192.168.0.211:9000/api/faster/radar/point/data/search" tooltip="http://192.168.0.211:9000/api/faster/radar/point/data/search"/>
+    <hyperlink ref="D5" r:id="rId3" display="http://115.236.35.106:9000/api/adv/faster/meida/list" tooltip="http://115.236.35.106:9000/api/adv/faster/meida/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/interfaceTesting/接口测试用例.xlsx
+++ b/interfaceTesting/接口测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
   <si>
     <t>用例编号</t>
   </si>
@@ -52,6 +52,9 @@
     <t>是否测试（1测试，2不测试）</t>
   </si>
   <si>
+    <t>请求接口时间</t>
+  </si>
+  <si>
     <t>领取优惠券</t>
   </si>
   <si>
@@ -113,6 +116,54 @@
   </si>
   <si>
     <t>{"size":3,"page":1}</t>
+  </si>
+  <si>
+    <t>门店列表</t>
+  </si>
+  <si>
+    <t>是否正常获取门店</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/faster/radar/point/search</t>
+  </si>
+  <si>
+    <t>{"size":50,"page":1}</t>
+  </si>
+  <si>
+    <t>全部广告列表</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/adv/faster/list</t>
+  </si>
+  <si>
+    <t>{"size":10,"page":1,"status":0}</t>
+  </si>
+  <si>
+    <t>投放中广告列表</t>
+  </si>
+  <si>
+    <t>{"size":10,"page":1,"status":1}</t>
+  </si>
+  <si>
+    <t>审核中广告列表</t>
+  </si>
+  <si>
+    <t>{"size":10,"page":1,"status":3}</t>
+  </si>
+  <si>
+    <t>优秀案例</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/adv/faster/example</t>
+  </si>
+  <si>
+    <t>{"size":10,"page":1}</t>
+  </si>
+  <si>
+    <t>app端获取门店列表</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/faster/adv/radar/point/newlist</t>
   </si>
 </sst>
 </file>
@@ -120,12 +171,12 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -136,33 +187,103 @@
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="SimSun"/>
       <charset val="134"/>
-      <scheme val="major"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
+      <name val="Arial"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
+      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -177,6 +298,22 @@
     </font>
     <font>
       <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
@@ -193,47 +330,29 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -251,55 +370,7 @@
     <font>
       <u/>
       <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
       <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -320,31 +391,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -356,43 +541,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -404,37 +553,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -446,55 +565,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -505,6 +576,50 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -528,30 +643,6 @@
       <top/>
       <bottom style="medium">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -585,190 +676,176 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="4" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="17" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1090,10 +1167,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L200"/>
+  <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1110,7 +1187,7 @@
     <col min="11" max="19" width="10.8333333333333"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:12">
+    <row r="1" ht="40.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1147,727 +1224,916 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" ht="65" customHeight="1" spans="1:12">
-      <c r="A2" s="2">
+      <c r="M1" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" ht="65" customHeight="1" spans="1:13">
+      <c r="A2" s="1">
         <v>1001</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
+      <c r="L2" s="1">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2"/>
+    </row>
+    <row r="3" ht="65" customHeight="1" spans="1:13">
+      <c r="A3" s="1">
+        <v>1002</v>
+      </c>
+      <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D3" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="H2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2">
+      <c r="G3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J3" s="1"/>
+      <c r="K3" s="1"/>
+      <c r="L3" s="1">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" ht="65" customHeight="1" spans="1:12">
-      <c r="A3" s="2">
-        <v>1002</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" ht="52" customHeight="1" spans="1:13">
+      <c r="A4" s="1">
+        <v>1003</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I3" s="1" t="s">
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H4" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" ht="52" customHeight="1" spans="1:12">
-      <c r="A4" s="2">
-        <v>1003</v>
-      </c>
-      <c r="B4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G4" s="1" t="s">
+      <c r="J4" s="1"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1">
+        <v>1</v>
+      </c>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" ht="40.5" spans="1:13">
+      <c r="A5" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="H4" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I4" s="1" t="s">
+      <c r="G5" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2">
+      <c r="I5" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J5" s="1"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" ht="40.5" spans="1:12">
-      <c r="A5" s="2">
-        <v>1004</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G5" s="3" t="s">
+      <c r="M5" s="3"/>
+    </row>
+    <row r="6" ht="40.5" spans="1:13">
+      <c r="A6" s="2">
+        <v>1005</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I6" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3">
+        <v>1</v>
+      </c>
+      <c r="M6" s="3"/>
+    </row>
+    <row r="7" ht="40.5" spans="1:13">
+      <c r="A7" s="2">
+        <v>1006</v>
+      </c>
+      <c r="B7" s="3"/>
+      <c r="C7" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="H5" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="I5" s="1" t="s">
+      <c r="F7" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="J5" s="2"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2">
+      <c r="I7" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J7" s="3"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3">
         <v>1</v>
       </c>
-    </row>
-    <row r="6" spans="5:5">
-      <c r="E6" s="4"/>
-    </row>
-    <row r="7" spans="5:5">
-      <c r="E7" s="4"/>
-    </row>
-    <row r="8" spans="5:5">
-      <c r="E8" s="4"/>
-    </row>
-    <row r="9" spans="5:5">
-      <c r="E9" s="4"/>
-    </row>
-    <row r="10" spans="5:5">
-      <c r="E10" s="4"/>
-    </row>
-    <row r="11" spans="5:5">
-      <c r="E11" s="4"/>
+      <c r="M7" s="3"/>
+    </row>
+    <row r="8" ht="40.5" spans="1:13">
+      <c r="A8" s="2">
+        <v>1007</v>
+      </c>
+      <c r="B8" s="3"/>
+      <c r="C8" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I8" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J8" s="3"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3">
+        <v>1</v>
+      </c>
+      <c r="M8" s="3"/>
+    </row>
+    <row r="9" ht="40.5" spans="1:13">
+      <c r="A9" s="2">
+        <v>1008</v>
+      </c>
+      <c r="B9" s="3"/>
+      <c r="C9" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J9" s="3"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3">
+        <v>1</v>
+      </c>
+      <c r="M9" s="3"/>
+    </row>
+    <row r="10" ht="40.5" spans="1:13">
+      <c r="A10" s="2">
+        <v>1009</v>
+      </c>
+      <c r="B10" s="3"/>
+      <c r="C10" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3">
+        <v>1</v>
+      </c>
+      <c r="M10" s="3"/>
+    </row>
+    <row r="11" ht="40.5" spans="1:13">
+      <c r="A11" s="2">
+        <v>1010</v>
+      </c>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I11" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3">
+        <v>1</v>
+      </c>
+      <c r="M11" s="3"/>
     </row>
     <row r="12" spans="5:5">
-      <c r="E12" s="4"/>
+      <c r="E12" s="6"/>
     </row>
     <row r="13" spans="5:5">
-      <c r="E13" s="4"/>
+      <c r="E13" s="6"/>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="4"/>
+      <c r="E14" s="6"/>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="4"/>
+      <c r="E15" s="6"/>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="4"/>
+      <c r="E16" s="6"/>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="4"/>
+      <c r="E17" s="6"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="4"/>
+      <c r="E18" s="6"/>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="4"/>
+      <c r="E19" s="6"/>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="4"/>
+      <c r="E20" s="6"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="4"/>
+      <c r="E21" s="6"/>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="4"/>
+      <c r="E22" s="6"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="4"/>
+      <c r="E23" s="6"/>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="4"/>
+      <c r="E24" s="6"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="4"/>
+      <c r="E25" s="6"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="4"/>
+      <c r="E26" s="6"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="4"/>
+      <c r="E27" s="6"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="4"/>
+      <c r="E28" s="6"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="4"/>
+      <c r="E29" s="6"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="4"/>
+      <c r="E30" s="6"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="4"/>
+      <c r="E31" s="6"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="4"/>
+      <c r="E32" s="6"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="4"/>
+      <c r="E33" s="6"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="4"/>
+      <c r="E34" s="6"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="4"/>
+      <c r="E35" s="6"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="4"/>
+      <c r="E36" s="6"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="4"/>
+      <c r="E37" s="6"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="4"/>
+      <c r="E38" s="6"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="4"/>
+      <c r="E39" s="6"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="4"/>
+      <c r="E40" s="6"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="4"/>
+      <c r="E41" s="6"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="4"/>
+      <c r="E42" s="6"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="4"/>
+      <c r="E43" s="6"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="4"/>
+      <c r="E44" s="6"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="4"/>
+      <c r="E45" s="6"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="4"/>
+      <c r="E46" s="6"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="4"/>
+      <c r="E47" s="6"/>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="4"/>
+      <c r="E48" s="6"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="4"/>
+      <c r="E49" s="6"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="4"/>
+      <c r="E50" s="6"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="4"/>
+      <c r="E51" s="6"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="4"/>
+      <c r="E52" s="6"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="4"/>
+      <c r="E53" s="6"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="4"/>
+      <c r="E54" s="6"/>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="4"/>
+      <c r="E55" s="6"/>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="4"/>
+      <c r="E56" s="6"/>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="4"/>
+      <c r="E57" s="6"/>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="4"/>
+      <c r="E58" s="6"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="4"/>
+      <c r="E59" s="6"/>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="4"/>
+      <c r="E60" s="6"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="4"/>
+      <c r="E61" s="6"/>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="4"/>
+      <c r="E62" s="6"/>
     </row>
     <row r="63" spans="5:5">
-      <c r="E63" s="4"/>
+      <c r="E63" s="6"/>
     </row>
     <row r="64" spans="5:5">
-      <c r="E64" s="4"/>
+      <c r="E64" s="6"/>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="4"/>
+      <c r="E65" s="6"/>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="4"/>
+      <c r="E66" s="6"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="4"/>
+      <c r="E67" s="6"/>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="4"/>
+      <c r="E68" s="6"/>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="4"/>
+      <c r="E69" s="6"/>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="4"/>
+      <c r="E70" s="6"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="4"/>
+      <c r="E71" s="6"/>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="4"/>
+      <c r="E72" s="6"/>
     </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="4"/>
+      <c r="E73" s="6"/>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="4"/>
+      <c r="E74" s="6"/>
     </row>
     <row r="75" spans="5:5">
-      <c r="E75" s="4"/>
+      <c r="E75" s="6"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="4"/>
+      <c r="E76" s="6"/>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="4"/>
+      <c r="E77" s="6"/>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="4"/>
+      <c r="E78" s="6"/>
     </row>
     <row r="79" spans="5:5">
-      <c r="E79" s="4"/>
+      <c r="E79" s="6"/>
     </row>
     <row r="80" spans="5:5">
-      <c r="E80" s="4"/>
+      <c r="E80" s="6"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="4"/>
+      <c r="E81" s="6"/>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="4"/>
+      <c r="E82" s="6"/>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="4"/>
+      <c r="E83" s="6"/>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="4"/>
+      <c r="E84" s="6"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="4"/>
+      <c r="E85" s="6"/>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="4"/>
+      <c r="E86" s="6"/>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="4"/>
+      <c r="E87" s="6"/>
     </row>
     <row r="88" spans="5:5">
-      <c r="E88" s="4"/>
+      <c r="E88" s="6"/>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="4"/>
+      <c r="E89" s="6"/>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="4"/>
+      <c r="E90" s="6"/>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="4"/>
+      <c r="E91" s="6"/>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="4"/>
+      <c r="E92" s="6"/>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="4"/>
+      <c r="E93" s="6"/>
     </row>
     <row r="94" spans="5:5">
-      <c r="E94" s="4"/>
+      <c r="E94" s="6"/>
     </row>
     <row r="95" spans="5:5">
-      <c r="E95" s="4"/>
+      <c r="E95" s="6"/>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="4"/>
+      <c r="E96" s="6"/>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="4"/>
+      <c r="E97" s="6"/>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="4"/>
+      <c r="E98" s="6"/>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="4"/>
+      <c r="E99" s="6"/>
     </row>
     <row r="100" spans="5:5">
-      <c r="E100" s="4"/>
+      <c r="E100" s="6"/>
     </row>
     <row r="101" spans="5:5">
-      <c r="E101" s="4"/>
+      <c r="E101" s="6"/>
     </row>
     <row r="102" spans="5:5">
-      <c r="E102" s="4"/>
+      <c r="E102" s="6"/>
     </row>
     <row r="103" spans="5:5">
-      <c r="E103" s="4"/>
+      <c r="E103" s="6"/>
     </row>
     <row r="104" spans="5:5">
-      <c r="E104" s="4"/>
+      <c r="E104" s="6"/>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="4"/>
+      <c r="E105" s="6"/>
     </row>
     <row r="106" spans="5:5">
-      <c r="E106" s="4"/>
+      <c r="E106" s="6"/>
     </row>
     <row r="107" spans="5:5">
-      <c r="E107" s="4"/>
+      <c r="E107" s="6"/>
     </row>
     <row r="108" spans="5:5">
-      <c r="E108" s="4"/>
+      <c r="E108" s="6"/>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="4"/>
+      <c r="E109" s="6"/>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="4"/>
+      <c r="E110" s="6"/>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="4"/>
+      <c r="E111" s="6"/>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="4"/>
+      <c r="E112" s="6"/>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="4"/>
+      <c r="E113" s="6"/>
     </row>
     <row r="114" spans="5:5">
-      <c r="E114" s="4"/>
+      <c r="E114" s="6"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="4"/>
+      <c r="E115" s="6"/>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="4"/>
+      <c r="E116" s="6"/>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="4"/>
+      <c r="E117" s="6"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="4"/>
+      <c r="E118" s="6"/>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="4"/>
+      <c r="E119" s="6"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="4"/>
+      <c r="E120" s="6"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="4"/>
+      <c r="E121" s="6"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="4"/>
+      <c r="E122" s="6"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="4"/>
+      <c r="E123" s="6"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="4"/>
+      <c r="E124" s="6"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="4"/>
+      <c r="E125" s="6"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="4"/>
+      <c r="E126" s="6"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="4"/>
+      <c r="E127" s="6"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="4"/>
+      <c r="E128" s="6"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="4"/>
+      <c r="E129" s="6"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="4"/>
+      <c r="E130" s="6"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="4"/>
+      <c r="E131" s="6"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="4"/>
+      <c r="E132" s="6"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="4"/>
+      <c r="E133" s="6"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="4"/>
+      <c r="E134" s="6"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="4"/>
+      <c r="E135" s="6"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="4"/>
+      <c r="E136" s="6"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="4"/>
+      <c r="E137" s="6"/>
     </row>
     <row r="138" spans="5:5">
-      <c r="E138" s="4"/>
+      <c r="E138" s="6"/>
     </row>
     <row r="139" spans="5:5">
-      <c r="E139" s="4"/>
+      <c r="E139" s="6"/>
     </row>
     <row r="140" spans="5:5">
-      <c r="E140" s="4"/>
+      <c r="E140" s="6"/>
     </row>
     <row r="141" spans="5:5">
-      <c r="E141" s="4"/>
+      <c r="E141" s="6"/>
     </row>
     <row r="142" spans="5:5">
-      <c r="E142" s="4"/>
+      <c r="E142" s="6"/>
     </row>
     <row r="143" spans="5:5">
-      <c r="E143" s="4"/>
+      <c r="E143" s="6"/>
     </row>
     <row r="144" spans="5:5">
-      <c r="E144" s="4"/>
+      <c r="E144" s="6"/>
     </row>
     <row r="145" spans="5:5">
-      <c r="E145" s="4"/>
+      <c r="E145" s="6"/>
     </row>
     <row r="146" spans="5:5">
-      <c r="E146" s="4"/>
+      <c r="E146" s="6"/>
     </row>
     <row r="147" spans="5:5">
-      <c r="E147" s="4"/>
+      <c r="E147" s="6"/>
     </row>
     <row r="148" spans="5:5">
-      <c r="E148" s="4"/>
+      <c r="E148" s="6"/>
     </row>
     <row r="149" spans="5:5">
-      <c r="E149" s="4"/>
+      <c r="E149" s="6"/>
     </row>
     <row r="150" spans="5:5">
-      <c r="E150" s="4"/>
+      <c r="E150" s="6"/>
     </row>
     <row r="151" spans="5:5">
-      <c r="E151" s="4"/>
+      <c r="E151" s="6"/>
     </row>
     <row r="152" spans="5:5">
-      <c r="E152" s="4"/>
+      <c r="E152" s="6"/>
     </row>
     <row r="153" spans="5:5">
-      <c r="E153" s="4"/>
+      <c r="E153" s="6"/>
     </row>
     <row r="154" spans="5:5">
-      <c r="E154" s="4"/>
+      <c r="E154" s="6"/>
     </row>
     <row r="155" spans="5:5">
-      <c r="E155" s="4"/>
+      <c r="E155" s="6"/>
     </row>
     <row r="156" spans="5:5">
-      <c r="E156" s="4"/>
+      <c r="E156" s="6"/>
     </row>
     <row r="157" spans="5:5">
-      <c r="E157" s="4"/>
+      <c r="E157" s="6"/>
     </row>
     <row r="158" spans="5:5">
-      <c r="E158" s="4"/>
+      <c r="E158" s="6"/>
     </row>
     <row r="159" spans="5:5">
-      <c r="E159" s="4"/>
+      <c r="E159" s="6"/>
     </row>
     <row r="160" spans="5:5">
-      <c r="E160" s="4"/>
+      <c r="E160" s="6"/>
     </row>
     <row r="161" spans="5:5">
-      <c r="E161" s="4"/>
+      <c r="E161" s="6"/>
     </row>
     <row r="162" spans="5:5">
-      <c r="E162" s="4"/>
+      <c r="E162" s="6"/>
     </row>
     <row r="163" spans="5:5">
-      <c r="E163" s="4"/>
+      <c r="E163" s="6"/>
     </row>
     <row r="164" spans="5:5">
-      <c r="E164" s="4"/>
+      <c r="E164" s="6"/>
     </row>
     <row r="165" spans="5:5">
-      <c r="E165" s="4"/>
+      <c r="E165" s="6"/>
     </row>
     <row r="166" spans="5:5">
-      <c r="E166" s="4"/>
+      <c r="E166" s="6"/>
     </row>
     <row r="167" spans="5:5">
-      <c r="E167" s="4"/>
+      <c r="E167" s="6"/>
     </row>
     <row r="168" spans="5:5">
-      <c r="E168" s="4"/>
+      <c r="E168" s="6"/>
     </row>
     <row r="169" spans="5:5">
-      <c r="E169" s="4"/>
+      <c r="E169" s="6"/>
     </row>
     <row r="170" spans="5:5">
-      <c r="E170" s="4"/>
+      <c r="E170" s="6"/>
     </row>
     <row r="171" spans="5:5">
-      <c r="E171" s="4"/>
+      <c r="E171" s="6"/>
     </row>
     <row r="172" spans="5:5">
-      <c r="E172" s="4"/>
+      <c r="E172" s="6"/>
     </row>
     <row r="173" spans="5:5">
-      <c r="E173" s="4"/>
+      <c r="E173" s="6"/>
     </row>
     <row r="174" spans="5:5">
-      <c r="E174" s="4"/>
+      <c r="E174" s="6"/>
     </row>
     <row r="175" spans="5:5">
-      <c r="E175" s="4"/>
+      <c r="E175" s="6"/>
     </row>
     <row r="176" spans="5:5">
-      <c r="E176" s="4"/>
+      <c r="E176" s="6"/>
     </row>
     <row r="177" spans="5:5">
-      <c r="E177" s="4"/>
+      <c r="E177" s="6"/>
     </row>
     <row r="178" spans="5:5">
-      <c r="E178" s="4"/>
+      <c r="E178" s="6"/>
     </row>
     <row r="179" spans="5:5">
-      <c r="E179" s="4"/>
+      <c r="E179" s="6"/>
     </row>
     <row r="180" spans="5:5">
-      <c r="E180" s="4"/>
+      <c r="E180" s="6"/>
     </row>
     <row r="181" spans="5:5">
-      <c r="E181" s="4"/>
+      <c r="E181" s="6"/>
     </row>
     <row r="182" spans="5:5">
-      <c r="E182" s="4"/>
+      <c r="E182" s="6"/>
     </row>
     <row r="183" spans="5:5">
-      <c r="E183" s="4"/>
+      <c r="E183" s="6"/>
     </row>
     <row r="184" spans="5:5">
-      <c r="E184" s="4"/>
+      <c r="E184" s="6"/>
     </row>
     <row r="185" spans="5:5">
-      <c r="E185" s="4"/>
+      <c r="E185" s="6"/>
     </row>
     <row r="186" spans="5:5">
-      <c r="E186" s="4"/>
+      <c r="E186" s="6"/>
     </row>
     <row r="187" spans="5:5">
-      <c r="E187" s="4"/>
+      <c r="E187" s="6"/>
     </row>
     <row r="188" spans="5:5">
-      <c r="E188" s="4"/>
+      <c r="E188" s="6"/>
     </row>
     <row r="189" spans="5:5">
-      <c r="E189" s="4"/>
+      <c r="E189" s="6"/>
     </row>
     <row r="190" spans="5:5">
-      <c r="E190" s="4"/>
+      <c r="E190" s="6"/>
     </row>
     <row r="191" spans="5:5">
-      <c r="E191" s="4"/>
+      <c r="E191" s="6"/>
     </row>
     <row r="192" spans="5:5">
-      <c r="E192" s="4"/>
+      <c r="E192" s="6"/>
     </row>
     <row r="193" spans="5:5">
-      <c r="E193" s="4"/>
+      <c r="E193" s="6"/>
     </row>
     <row r="194" spans="5:5">
-      <c r="E194" s="4"/>
+      <c r="E194" s="6"/>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="4"/>
+      <c r="E195" s="6"/>
     </row>
     <row r="196" spans="5:5">
-      <c r="E196" s="4"/>
+      <c r="E196" s="6"/>
     </row>
     <row r="197" spans="5:5">
-      <c r="E197" s="4"/>
+      <c r="E197" s="6"/>
     </row>
     <row r="198" spans="5:5">
-      <c r="E198" s="4"/>
+      <c r="E198" s="6"/>
     </row>
     <row r="199" spans="5:5">
-      <c r="E199" s="4"/>
+      <c r="E199" s="6"/>
     </row>
     <row r="200" spans="5:5">
-      <c r="E200" s="4"/>
+      <c r="E200" s="6"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1875,6 +2141,12 @@
     <hyperlink ref="D3" r:id="rId1" display="http://115.236.35.106:9000/api/product/coupon/receiver" tooltip="http://115.236.35.106:9000/api/product/coupon/receiver"/>
     <hyperlink ref="D4" r:id="rId2" display="http://192.168.0.211:9000/api/faster/radar/point/data/search" tooltip="http://192.168.0.211:9000/api/faster/radar/point/data/search"/>
     <hyperlink ref="D5" r:id="rId3" display="http://115.236.35.106:9000/api/adv/faster/meida/list" tooltip="http://115.236.35.106:9000/api/adv/faster/meida/list"/>
+    <hyperlink ref="D6" r:id="rId4" display="http://115.236.35.106:9000/api/faster/radar/point/search" tooltip="http://115.236.35.106:9000/api/faster/radar/point/search"/>
+    <hyperlink ref="D7" r:id="rId5" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
+    <hyperlink ref="D8" r:id="rId5" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
+    <hyperlink ref="D9" r:id="rId5" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
+    <hyperlink ref="D10" r:id="rId6" display="http://115.236.35.106:9000/api/adv/faster/example" tooltip="http://115.236.35.106:9000/api/adv/faster/example"/>
+    <hyperlink ref="D11" r:id="rId7" display="http://115.236.35.106:9000/api/faster/adv/radar/point/newlist" tooltip="http://115.236.35.106:9000/api/faster/adv/radar/point/newlist"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/interfaceTesting/接口测试用例.xlsx
+++ b/interfaceTesting/接口测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>用例编号</t>
   </si>
@@ -133,6 +133,9 @@
     <t>全部广告列表</t>
   </si>
   <si>
+    <t>是否正常获取全部广告列表</t>
+  </si>
+  <si>
     <t>http://115.236.35.106:9000/api/adv/faster/list</t>
   </si>
   <si>
@@ -142,18 +145,27 @@
     <t>投放中广告列表</t>
   </si>
   <si>
+    <t>是否正常获取投放中广告列表</t>
+  </si>
+  <si>
     <t>{"size":10,"page":1,"status":1}</t>
   </si>
   <si>
     <t>审核中广告列表</t>
   </si>
   <si>
+    <t>是否正常获取审核中广告列表</t>
+  </si>
+  <si>
     <t>{"size":10,"page":1,"status":3}</t>
   </si>
   <si>
     <t>优秀案例</t>
   </si>
   <si>
+    <t>是否正常获取优秀案例</t>
+  </si>
+  <si>
     <t>http://115.236.35.106:9000/api/adv/faster/example</t>
   </si>
   <si>
@@ -161,6 +173,9 @@
   </si>
   <si>
     <t>app端获取门店列表</t>
+  </si>
+  <si>
+    <t>是否正常获取app端获取门店列表</t>
   </si>
   <si>
     <t>http://115.236.35.106:9000/api/faster/adv/radar/point/newlist</t>
@@ -172,11 +187,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="27">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -213,15 +228,112 @@
     </font>
     <font>
       <sz val="9"/>
-      <color indexed="8"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -232,24 +344,11 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -261,42 +360,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="18"/>
       <color theme="3"/>
@@ -315,62 +378,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -385,19 +393,151 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -409,163 +549,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -581,20 +589,24 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,8 +629,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -640,9 +652,20 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -661,168 +684,153 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="15" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="26" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -842,10 +850,10 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1170,7 +1178,7 @@
   <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1407,12 +1415,14 @@
       <c r="A7" s="2">
         <v>1006</v>
       </c>
-      <c r="B7" s="3"/>
+      <c r="B7" s="3" t="s">
+        <v>38</v>
+      </c>
       <c r="C7" s="3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="D7" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
         <v>32</v>
@@ -1421,7 +1431,7 @@
         <v>27</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>22</v>
@@ -1440,12 +1450,14 @@
       <c r="A8" s="2">
         <v>1007</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>42</v>
+      </c>
       <c r="C8" s="3" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="D8" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
         <v>32</v>
@@ -1454,7 +1466,7 @@
         <v>27</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>22</v>
@@ -1473,12 +1485,14 @@
       <c r="A9" s="2">
         <v>1008</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>45</v>
+      </c>
       <c r="C9" s="3" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D9" s="4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
         <v>32</v>
@@ -1487,7 +1501,7 @@
         <v>27</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>22</v>
@@ -1506,12 +1520,14 @@
       <c r="A10" s="2">
         <v>1009</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="C10" s="3" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="D10" s="4" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>32</v>
@@ -1520,7 +1536,7 @@
         <v>27</v>
       </c>
       <c r="G10" s="1" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="H10" s="1" t="s">
         <v>22</v>
@@ -1539,12 +1555,14 @@
       <c r="A11" s="2">
         <v>1010</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="5" t="s">
+        <v>52</v>
+      </c>
       <c r="C11" s="5" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D11" s="4" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>32</v>

--- a/interfaceTesting/接口测试用例.xlsx
+++ b/interfaceTesting/接口测试用例.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
   <si>
     <t>用例编号</t>
   </si>
@@ -94,7 +94,7 @@
     <t>门店搜索功能是否正常</t>
   </si>
   <si>
-    <t>http://192.168.0.211:9000/api/faster/radar/point/data/search</t>
+    <t>http://115.236.35.106:9000/api/faster/radar/point/data/search</t>
   </si>
   <si>
     <t>{"Content-Type":"application/json","ACCESS_TOKEN":"test-token"}</t>
@@ -179,6 +179,38 @@
   </si>
   <si>
     <t>http://115.236.35.106:9000/api/faster/adv/radar/point/newlist</t>
+  </si>
+  <si>
+    <t>广告创建测试</t>
+  </si>
+  <si>
+    <t>是否正常创建广告</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/adv/faster/save</t>
+  </si>
+  <si>
+    <t>{"needSmartRelease":1,"landingTitle":"","releaseTime":"00:00～24:00","releasePrice":2000.0,"releaseDay":"2020-04-10 开始",
+"fasterAdvReleaseLocation":{"needVideo":1,"settleModes":[{"updatedTime":2019,"settleMode":"CPC","minPrice":1030,"cptPublication":"",
+"createdTime":2019,"id":1290,"releaseLocationId":1,"suggestPrice":2030},{"updatedTime":2019,"settleMode":"CPM","minPrice":1000,
+"cptPublication":"","createdTime":2019,"id":1291,"releaseLocationId":1,"suggestPrice":10000}]},"fixedPrice":3010.0,"acquisitionMode":0,
+"releaseStartDay":"20200410","promoteType":1,"landingType":"0","needOptimizeMaterial":1,"dayMaxAmount":1000000.0,"settleMode":"CPC",
+"bizId":"8wQKTeZ2CDmcNCSaVQOEBElvOxYEZgWA","createModel":"0","advName":"广告创建测试","releaseStartTime":"0","previewImg":"","releaseEndDay":"",
+"directionalJson":{"locationId":1,"coverNum":"456334","timeset":["4276"],"behavior":{"behaviorSceneTitle":"App,电商,资讯",
+"behaviorStrengthTitle":"不限","behaviorScene":["3880","3881","3882"],"behaviorStrength":["3891"],"behaviorValidityTitle":"7天",
+"behaviorValidity":["3884"]},"exposureNum":"14562389"},"fixedPriceDayAmount":1000010.0,"fixedPriceSupport":1,"landingId":"","editUrl":"",
+"entrustOperation":0,"needScreenshot":0,"materialImgs":[{"originalImg":"http://cdn.topjoytec.com/gBWQdYeXLqy3Sk4glLxVeg.jpg",
+"cutImg":"http://cdn.topjoytec.com/XEyoQ5Y5ksC90LiefiAIpQ.jpg","materialSize":"640*720"}],"releaseEndTime":"24","isOuterUrl":1,
+"landingUrls":["ikf.kskdk"],"slogan":"还记得看到了","releaseLocationId":1}</t>
+  </si>
+  <si>
+    <t>公司资质</t>
+  </si>
+  <si>
+    <t>是否正常获取公司资质</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/adv/faster/company/certification/list</t>
   </si>
 </sst>
 </file>
@@ -187,11 +219,11 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="27">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -227,6 +259,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -235,6 +274,126 @@
     <font>
       <sz val="11"/>
       <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,34 +407,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
@@ -284,98 +415,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -393,18 +432,150 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -417,13 +588,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,145 +612,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -589,48 +628,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
         <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -652,11 +654,18 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -665,7 +674,37 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -689,152 +728,152 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="8" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="12" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="25" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -850,10 +889,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1177,8 +1222,8 @@
   <sheetPr/>
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1586,585 +1631,649 @@
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" spans="5:5">
-      <c r="E12" s="6"/>
-    </row>
-    <row r="13" spans="5:5">
-      <c r="E13" s="6"/>
+    <row r="12" ht="409.5" spans="1:13">
+      <c r="A12" s="2">
+        <v>1011</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I12" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+      <c r="L12" s="3">
+        <v>1</v>
+      </c>
+      <c r="M12" s="3"/>
+    </row>
+    <row r="13" ht="54" spans="1:12">
+      <c r="A13" s="2">
+        <v>1012</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G13" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3">
+        <v>1</v>
+      </c>
     </row>
     <row r="14" spans="5:5">
-      <c r="E14" s="6"/>
+      <c r="E14" s="8"/>
     </row>
     <row r="15" spans="5:5">
-      <c r="E15" s="6"/>
+      <c r="E15" s="8"/>
     </row>
     <row r="16" spans="5:5">
-      <c r="E16" s="6"/>
+      <c r="E16" s="8"/>
     </row>
     <row r="17" spans="5:5">
-      <c r="E17" s="6"/>
+      <c r="E17" s="8"/>
     </row>
     <row r="18" spans="5:5">
-      <c r="E18" s="6"/>
+      <c r="E18" s="8"/>
     </row>
     <row r="19" spans="5:5">
-      <c r="E19" s="6"/>
+      <c r="E19" s="8"/>
     </row>
     <row r="20" spans="5:5">
-      <c r="E20" s="6"/>
+      <c r="E20" s="8"/>
     </row>
     <row r="21" spans="5:5">
-      <c r="E21" s="6"/>
+      <c r="E21" s="8"/>
     </row>
     <row r="22" spans="5:5">
-      <c r="E22" s="6"/>
+      <c r="E22" s="8"/>
     </row>
     <row r="23" spans="5:5">
-      <c r="E23" s="6"/>
+      <c r="E23" s="8"/>
     </row>
     <row r="24" spans="5:5">
-      <c r="E24" s="6"/>
+      <c r="E24" s="8"/>
     </row>
     <row r="25" spans="5:5">
-      <c r="E25" s="6"/>
+      <c r="E25" s="8"/>
     </row>
     <row r="26" spans="5:5">
-      <c r="E26" s="6"/>
+      <c r="E26" s="8"/>
     </row>
     <row r="27" spans="5:5">
-      <c r="E27" s="6"/>
+      <c r="E27" s="8"/>
     </row>
     <row r="28" spans="5:5">
-      <c r="E28" s="6"/>
+      <c r="E28" s="8"/>
     </row>
     <row r="29" spans="5:5">
-      <c r="E29" s="6"/>
+      <c r="E29" s="8"/>
     </row>
     <row r="30" spans="5:5">
-      <c r="E30" s="6"/>
+      <c r="E30" s="8"/>
     </row>
     <row r="31" spans="5:5">
-      <c r="E31" s="6"/>
+      <c r="E31" s="8"/>
     </row>
     <row r="32" spans="5:5">
-      <c r="E32" s="6"/>
+      <c r="E32" s="8"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="6"/>
+      <c r="E33" s="8"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="6"/>
+      <c r="E34" s="8"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="6"/>
+      <c r="E35" s="8"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="6"/>
+      <c r="E36" s="8"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="6"/>
+      <c r="E37" s="8"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="6"/>
+      <c r="E38" s="8"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="6"/>
+      <c r="E39" s="8"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="6"/>
+      <c r="E40" s="8"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="6"/>
+      <c r="E41" s="8"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="6"/>
+      <c r="E42" s="8"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="6"/>
+      <c r="E43" s="8"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="6"/>
+      <c r="E44" s="8"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="6"/>
+      <c r="E45" s="8"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="6"/>
+      <c r="E46" s="8"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="6"/>
+      <c r="E47" s="8"/>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="6"/>
+      <c r="E48" s="8"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="6"/>
+      <c r="E49" s="8"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="6"/>
+      <c r="E50" s="8"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="6"/>
+      <c r="E51" s="8"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="6"/>
+      <c r="E52" s="8"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="6"/>
+      <c r="E53" s="8"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="6"/>
+      <c r="E54" s="8"/>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="6"/>
+      <c r="E55" s="8"/>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="6"/>
+      <c r="E56" s="8"/>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="6"/>
+      <c r="E57" s="8"/>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="6"/>
+      <c r="E58" s="8"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="6"/>
+      <c r="E59" s="8"/>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="6"/>
+      <c r="E60" s="8"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="6"/>
+      <c r="E61" s="8"/>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="6"/>
+      <c r="E62" s="8"/>
     </row>
     <row r="63" spans="5:5">
-      <c r="E63" s="6"/>
+      <c r="E63" s="8"/>
     </row>
     <row r="64" spans="5:5">
-      <c r="E64" s="6"/>
+      <c r="E64" s="8"/>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="6"/>
+      <c r="E65" s="8"/>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="6"/>
+      <c r="E66" s="8"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="6"/>
+      <c r="E67" s="8"/>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="6"/>
+      <c r="E68" s="8"/>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="6"/>
+      <c r="E69" s="8"/>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="6"/>
+      <c r="E70" s="8"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="6"/>
+      <c r="E71" s="8"/>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="6"/>
+      <c r="E72" s="8"/>
     </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="6"/>
+      <c r="E73" s="8"/>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="6"/>
+      <c r="E74" s="8"/>
     </row>
     <row r="75" spans="5:5">
-      <c r="E75" s="6"/>
+      <c r="E75" s="8"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="6"/>
+      <c r="E76" s="8"/>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="6"/>
+      <c r="E77" s="8"/>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="6"/>
+      <c r="E78" s="8"/>
     </row>
     <row r="79" spans="5:5">
-      <c r="E79" s="6"/>
+      <c r="E79" s="8"/>
     </row>
     <row r="80" spans="5:5">
-      <c r="E80" s="6"/>
+      <c r="E80" s="8"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="6"/>
+      <c r="E81" s="8"/>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="6"/>
+      <c r="E82" s="8"/>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="6"/>
+      <c r="E83" s="8"/>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="6"/>
+      <c r="E84" s="8"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="6"/>
+      <c r="E85" s="8"/>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="6"/>
+      <c r="E86" s="8"/>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="6"/>
+      <c r="E87" s="8"/>
     </row>
     <row r="88" spans="5:5">
-      <c r="E88" s="6"/>
+      <c r="E88" s="8"/>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="6"/>
+      <c r="E89" s="8"/>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="6"/>
+      <c r="E90" s="8"/>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="6"/>
+      <c r="E91" s="8"/>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="6"/>
+      <c r="E92" s="8"/>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="6"/>
+      <c r="E93" s="8"/>
     </row>
     <row r="94" spans="5:5">
-      <c r="E94" s="6"/>
+      <c r="E94" s="8"/>
     </row>
     <row r="95" spans="5:5">
-      <c r="E95" s="6"/>
+      <c r="E95" s="8"/>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="6"/>
+      <c r="E96" s="8"/>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="6"/>
+      <c r="E97" s="8"/>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="6"/>
+      <c r="E98" s="8"/>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="6"/>
+      <c r="E99" s="8"/>
     </row>
     <row r="100" spans="5:5">
-      <c r="E100" s="6"/>
+      <c r="E100" s="8"/>
     </row>
     <row r="101" spans="5:5">
-      <c r="E101" s="6"/>
+      <c r="E101" s="8"/>
     </row>
     <row r="102" spans="5:5">
-      <c r="E102" s="6"/>
+      <c r="E102" s="8"/>
     </row>
     <row r="103" spans="5:5">
-      <c r="E103" s="6"/>
+      <c r="E103" s="8"/>
     </row>
     <row r="104" spans="5:5">
-      <c r="E104" s="6"/>
+      <c r="E104" s="8"/>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="6"/>
+      <c r="E105" s="8"/>
     </row>
     <row r="106" spans="5:5">
-      <c r="E106" s="6"/>
+      <c r="E106" s="8"/>
     </row>
     <row r="107" spans="5:5">
-      <c r="E107" s="6"/>
+      <c r="E107" s="8"/>
     </row>
     <row r="108" spans="5:5">
-      <c r="E108" s="6"/>
+      <c r="E108" s="8"/>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="6"/>
+      <c r="E109" s="8"/>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="6"/>
+      <c r="E110" s="8"/>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="6"/>
+      <c r="E111" s="8"/>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="6"/>
+      <c r="E112" s="8"/>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="6"/>
+      <c r="E113" s="8"/>
     </row>
     <row r="114" spans="5:5">
-      <c r="E114" s="6"/>
+      <c r="E114" s="8"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="6"/>
+      <c r="E115" s="8"/>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="6"/>
+      <c r="E116" s="8"/>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="6"/>
+      <c r="E117" s="8"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="6"/>
+      <c r="E118" s="8"/>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="6"/>
+      <c r="E119" s="8"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="6"/>
+      <c r="E120" s="8"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="6"/>
+      <c r="E121" s="8"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="6"/>
+      <c r="E122" s="8"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="6"/>
+      <c r="E123" s="8"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="6"/>
+      <c r="E124" s="8"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="6"/>
+      <c r="E125" s="8"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="6"/>
+      <c r="E126" s="8"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="6"/>
+      <c r="E127" s="8"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="6"/>
+      <c r="E128" s="8"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="6"/>
+      <c r="E129" s="8"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="6"/>
+      <c r="E130" s="8"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="6"/>
+      <c r="E131" s="8"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="6"/>
+      <c r="E132" s="8"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="6"/>
+      <c r="E133" s="8"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="6"/>
+      <c r="E134" s="8"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="6"/>
+      <c r="E135" s="8"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="6"/>
+      <c r="E136" s="8"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="6"/>
+      <c r="E137" s="8"/>
     </row>
     <row r="138" spans="5:5">
-      <c r="E138" s="6"/>
+      <c r="E138" s="8"/>
     </row>
     <row r="139" spans="5:5">
-      <c r="E139" s="6"/>
+      <c r="E139" s="8"/>
     </row>
     <row r="140" spans="5:5">
-      <c r="E140" s="6"/>
+      <c r="E140" s="8"/>
     </row>
     <row r="141" spans="5:5">
-      <c r="E141" s="6"/>
+      <c r="E141" s="8"/>
     </row>
     <row r="142" spans="5:5">
-      <c r="E142" s="6"/>
+      <c r="E142" s="8"/>
     </row>
     <row r="143" spans="5:5">
-      <c r="E143" s="6"/>
+      <c r="E143" s="8"/>
     </row>
     <row r="144" spans="5:5">
-      <c r="E144" s="6"/>
+      <c r="E144" s="8"/>
     </row>
     <row r="145" spans="5:5">
-      <c r="E145" s="6"/>
+      <c r="E145" s="8"/>
     </row>
     <row r="146" spans="5:5">
-      <c r="E146" s="6"/>
+      <c r="E146" s="8"/>
     </row>
     <row r="147" spans="5:5">
-      <c r="E147" s="6"/>
+      <c r="E147" s="8"/>
     </row>
     <row r="148" spans="5:5">
-      <c r="E148" s="6"/>
+      <c r="E148" s="8"/>
     </row>
     <row r="149" spans="5:5">
-      <c r="E149" s="6"/>
+      <c r="E149" s="8"/>
     </row>
     <row r="150" spans="5:5">
-      <c r="E150" s="6"/>
+      <c r="E150" s="8"/>
     </row>
     <row r="151" spans="5:5">
-      <c r="E151" s="6"/>
+      <c r="E151" s="8"/>
     </row>
     <row r="152" spans="5:5">
-      <c r="E152" s="6"/>
+      <c r="E152" s="8"/>
     </row>
     <row r="153" spans="5:5">
-      <c r="E153" s="6"/>
+      <c r="E153" s="8"/>
     </row>
     <row r="154" spans="5:5">
-      <c r="E154" s="6"/>
+      <c r="E154" s="8"/>
     </row>
     <row r="155" spans="5:5">
-      <c r="E155" s="6"/>
+      <c r="E155" s="8"/>
     </row>
     <row r="156" spans="5:5">
-      <c r="E156" s="6"/>
+      <c r="E156" s="8"/>
     </row>
     <row r="157" spans="5:5">
-      <c r="E157" s="6"/>
+      <c r="E157" s="8"/>
     </row>
     <row r="158" spans="5:5">
-      <c r="E158" s="6"/>
+      <c r="E158" s="8"/>
     </row>
     <row r="159" spans="5:5">
-      <c r="E159" s="6"/>
+      <c r="E159" s="8"/>
     </row>
     <row r="160" spans="5:5">
-      <c r="E160" s="6"/>
+      <c r="E160" s="8"/>
     </row>
     <row r="161" spans="5:5">
-      <c r="E161" s="6"/>
+      <c r="E161" s="8"/>
     </row>
     <row r="162" spans="5:5">
-      <c r="E162" s="6"/>
+      <c r="E162" s="8"/>
     </row>
     <row r="163" spans="5:5">
-      <c r="E163" s="6"/>
+      <c r="E163" s="8"/>
     </row>
     <row r="164" spans="5:5">
-      <c r="E164" s="6"/>
+      <c r="E164" s="8"/>
     </row>
     <row r="165" spans="5:5">
-      <c r="E165" s="6"/>
+      <c r="E165" s="8"/>
     </row>
     <row r="166" spans="5:5">
-      <c r="E166" s="6"/>
+      <c r="E166" s="8"/>
     </row>
     <row r="167" spans="5:5">
-      <c r="E167" s="6"/>
+      <c r="E167" s="8"/>
     </row>
     <row r="168" spans="5:5">
-      <c r="E168" s="6"/>
+      <c r="E168" s="8"/>
     </row>
     <row r="169" spans="5:5">
-      <c r="E169" s="6"/>
+      <c r="E169" s="8"/>
     </row>
     <row r="170" spans="5:5">
-      <c r="E170" s="6"/>
+      <c r="E170" s="8"/>
     </row>
     <row r="171" spans="5:5">
-      <c r="E171" s="6"/>
+      <c r="E171" s="8"/>
     </row>
     <row r="172" spans="5:5">
-      <c r="E172" s="6"/>
+      <c r="E172" s="8"/>
     </row>
     <row r="173" spans="5:5">
-      <c r="E173" s="6"/>
+      <c r="E173" s="8"/>
     </row>
     <row r="174" spans="5:5">
-      <c r="E174" s="6"/>
+      <c r="E174" s="8"/>
     </row>
     <row r="175" spans="5:5">
-      <c r="E175" s="6"/>
+      <c r="E175" s="8"/>
     </row>
     <row r="176" spans="5:5">
-      <c r="E176" s="6"/>
+      <c r="E176" s="8"/>
     </row>
     <row r="177" spans="5:5">
-      <c r="E177" s="6"/>
+      <c r="E177" s="8"/>
     </row>
     <row r="178" spans="5:5">
-      <c r="E178" s="6"/>
+      <c r="E178" s="8"/>
     </row>
     <row r="179" spans="5:5">
-      <c r="E179" s="6"/>
+      <c r="E179" s="8"/>
     </row>
     <row r="180" spans="5:5">
-      <c r="E180" s="6"/>
+      <c r="E180" s="8"/>
     </row>
     <row r="181" spans="5:5">
-      <c r="E181" s="6"/>
+      <c r="E181" s="8"/>
     </row>
     <row r="182" spans="5:5">
-      <c r="E182" s="6"/>
+      <c r="E182" s="8"/>
     </row>
     <row r="183" spans="5:5">
-      <c r="E183" s="6"/>
+      <c r="E183" s="8"/>
     </row>
     <row r="184" spans="5:5">
-      <c r="E184" s="6"/>
+      <c r="E184" s="8"/>
     </row>
     <row r="185" spans="5:5">
-      <c r="E185" s="6"/>
+      <c r="E185" s="8"/>
     </row>
     <row r="186" spans="5:5">
-      <c r="E186" s="6"/>
+      <c r="E186" s="8"/>
     </row>
     <row r="187" spans="5:5">
-      <c r="E187" s="6"/>
+      <c r="E187" s="8"/>
     </row>
     <row r="188" spans="5:5">
-      <c r="E188" s="6"/>
+      <c r="E188" s="8"/>
     </row>
     <row r="189" spans="5:5">
-      <c r="E189" s="6"/>
+      <c r="E189" s="8"/>
     </row>
     <row r="190" spans="5:5">
-      <c r="E190" s="6"/>
+      <c r="E190" s="8"/>
     </row>
     <row r="191" spans="5:5">
-      <c r="E191" s="6"/>
+      <c r="E191" s="8"/>
     </row>
     <row r="192" spans="5:5">
-      <c r="E192" s="6"/>
+      <c r="E192" s="8"/>
     </row>
     <row r="193" spans="5:5">
-      <c r="E193" s="6"/>
+      <c r="E193" s="8"/>
     </row>
     <row r="194" spans="5:5">
-      <c r="E194" s="6"/>
+      <c r="E194" s="8"/>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="6"/>
+      <c r="E195" s="8"/>
     </row>
     <row r="196" spans="5:5">
-      <c r="E196" s="6"/>
+      <c r="E196" s="8"/>
     </row>
     <row r="197" spans="5:5">
-      <c r="E197" s="6"/>
+      <c r="E197" s="8"/>
     </row>
     <row r="198" spans="5:5">
-      <c r="E198" s="6"/>
+      <c r="E198" s="8"/>
     </row>
     <row r="199" spans="5:5">
-      <c r="E199" s="6"/>
+      <c r="E199" s="8"/>
     </row>
     <row r="200" spans="5:5">
-      <c r="E200" s="6"/>
+      <c r="E200" s="8"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D2" r:id="rId1" display="http://115.236.35.106:9000/api/product/coupon/receiver" tooltip="http://115.236.35.106:9000/api/product/coupon/receiver"/>
     <hyperlink ref="D3" r:id="rId1" display="http://115.236.35.106:9000/api/product/coupon/receiver" tooltip="http://115.236.35.106:9000/api/product/coupon/receiver"/>
-    <hyperlink ref="D4" r:id="rId2" display="http://192.168.0.211:9000/api/faster/radar/point/data/search" tooltip="http://192.168.0.211:9000/api/faster/radar/point/data/search"/>
-    <hyperlink ref="D5" r:id="rId3" display="http://115.236.35.106:9000/api/adv/faster/meida/list" tooltip="http://115.236.35.106:9000/api/adv/faster/meida/list"/>
-    <hyperlink ref="D6" r:id="rId4" display="http://115.236.35.106:9000/api/faster/radar/point/search" tooltip="http://115.236.35.106:9000/api/faster/radar/point/search"/>
-    <hyperlink ref="D7" r:id="rId5" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
-    <hyperlink ref="D8" r:id="rId5" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
-    <hyperlink ref="D9" r:id="rId5" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
-    <hyperlink ref="D10" r:id="rId6" display="http://115.236.35.106:9000/api/adv/faster/example" tooltip="http://115.236.35.106:9000/api/adv/faster/example"/>
-    <hyperlink ref="D11" r:id="rId7" display="http://115.236.35.106:9000/api/faster/adv/radar/point/newlist" tooltip="http://115.236.35.106:9000/api/faster/adv/radar/point/newlist"/>
+    <hyperlink ref="D5" r:id="rId2" display="http://115.236.35.106:9000/api/adv/faster/meida/list" tooltip="http://115.236.35.106:9000/api/adv/faster/meida/list"/>
+    <hyperlink ref="D6" r:id="rId3" display="http://115.236.35.106:9000/api/faster/radar/point/search" tooltip="http://115.236.35.106:9000/api/faster/radar/point/search"/>
+    <hyperlink ref="D7" r:id="rId4" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
+    <hyperlink ref="D8" r:id="rId4" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
+    <hyperlink ref="D9" r:id="rId4" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
+    <hyperlink ref="D10" r:id="rId5" display="http://115.236.35.106:9000/api/adv/faster/example" tooltip="http://115.236.35.106:9000/api/adv/faster/example"/>
+    <hyperlink ref="D11" r:id="rId6" display="http://115.236.35.106:9000/api/faster/adv/radar/point/newlist" tooltip="http://115.236.35.106:9000/api/faster/adv/radar/point/newlist"/>
+    <hyperlink ref="D12" r:id="rId7" display="http://115.236.35.106:9000/api/adv/faster/save" tooltip="http://115.236.35.106:9000/api/adv/faster/save"/>
+    <hyperlink ref="D13" r:id="rId8" display="http://115.236.35.106:9000/api/adv/faster/company/certification/list" tooltip="http://115.236.35.106:9000/api/adv/faster/company/certification/list"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/interfaceTesting/接口测试用例.xlsx
+++ b/interfaceTesting/接口测试用例.xlsx
@@ -273,7 +273,37 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -287,16 +317,54 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -310,22 +378,38 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
       <sz val="11"/>
-      <color rgb="FF800080"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -338,90 +422,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -432,187 +432,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -623,59 +623,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -690,6 +637,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -723,153 +679,197 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="24" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="10" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="27" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="32" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1223,7 +1223,7 @@
   <dimension ref="A1:M200"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="H12" sqref="H12"/>
+      <selection activeCell="L12" sqref="L12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
@@ -1662,7 +1662,7 @@
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="M12" s="3"/>
     </row>

--- a/interfaceTesting/接口测试用例.xlsx
+++ b/interfaceTesting/接口测试用例.xlsx
@@ -1,20 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="20730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\pythonWork\first\interfaceTesting\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05F1B3EF-D85C-471F-B6A9-96AF30A9A459}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView windowWidth="28125" windowHeight="12540"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28125" windowHeight="12540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="77">
   <si>
     <t>用例编号</t>
   </si>
@@ -190,7 +196,16 @@
     <t>http://115.236.35.106:9000/api/adv/faster/save</t>
   </si>
   <si>
-    <t>{"needSmartRelease":1,"landingTitle":"","releaseTime":"00:00～24:00","releasePrice":2000.0,"releaseDay":"2020-04-10 开始",
+    <t>公司资质</t>
+  </si>
+  <si>
+    <t>是否正常获取公司资质</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/adv/faster/company/certification/list</t>
+  </si>
+  <si>
+    <t>{"needSmartRelease":1,"landingTitle":"","releaseTime":"00:00～24:00","releasePrice":2000.0,"releaseDay":"2020-04-10 开始",
 "fasterAdvReleaseLocation":{"needVideo":1,"settleModes":[{"updatedTime":2019,"settleMode":"CPC","minPrice":1030,"cptPublication":"",
 "createdTime":2019,"id":1290,"releaseLocationId":1,"suggestPrice":2030},{"updatedTime":2019,"settleMode":"CPM","minPrice":1000,
 "cptPublication":"","createdTime":2019,"id":1291,"releaseLocationId":1,"suggestPrice":10000}]},"fixedPrice":3010.0,"acquisitionMode":0,
@@ -204,26 +219,56 @@
 "landingUrls":["ikf.kskdk"],"slogan":"还记得看到了","releaseLocationId":1}</t>
   </si>
   <si>
-    <t>公司资质</t>
-  </si>
-  <si>
-    <t>是否正常获取公司资质</t>
-  </si>
-  <si>
-    <t>http://115.236.35.106:9000/api/adv/faster/company/certification/list</t>
+    <t>设备门店</t>
+  </si>
+  <si>
+    <t>是否正常获取设备门店信息</t>
+  </si>
+  <si>
+    <t>{"uid":5,"size":20,"page":1}</t>
+  </si>
+  <si>
+    <t>设备绑定</t>
+  </si>
+  <si>
+    <t>是否正常绑定</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/faster/adv/radar/device/save-bind</t>
+  </si>
+  <si>
+    <t>{"pointId":15,"deviceName":"交房费","deviceProductIdentifier":"29987","deviceMac":"VyAMt6JTw6xF","deviceVendorIdentifier":"6790"}</t>
+  </si>
+  <si>
+    <t>门店创建</t>
+  </si>
+  <si>
+    <t>是否正常创建门店</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/faster/adv/radar/point/save</t>
+  </si>
+  <si>
+    <t>{"address":"浙江省杭州市拱墅区上塘街道科园路天瑞国际","industryId":56,"adcode":"330100","level":"city","latitude":30.325501844618049,"longitude":120.15988688151043,"pointName":"好像记得叫"}</t>
+  </si>
+  <si>
+    <t>广告采集人群</t>
+  </si>
+  <si>
+    <t>是否正常获取信息</t>
+  </si>
+  <si>
+    <t>http://115.236.35.106:9000/api/adv/faster/collect/list</t>
+  </si>
+  <si>
+    <t>{"size":20,"page":1}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-  </numFmts>
-  <fonts count="27">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="8">
     <font>
       <sz val="12"/>
       <color indexed="8"/>
@@ -241,26 +286,11 @@
       <sz val="11"/>
       <color indexed="8"/>
       <name val="Arial"/>
-      <charset val="134"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -272,352 +302,38 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color indexed="8"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="9"/>
       <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
+      <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="33">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="9">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -625,251 +341,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
-  <cellStyleXfs count="49">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="41" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -886,77 +363,34 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="49">
+  <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
-    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
-    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
-    <cellStyle name="输入" xfId="3" builtinId="20"/>
-    <cellStyle name="货币" xfId="4" builtinId="4"/>
-    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
-    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
-    <cellStyle name="差" xfId="7" builtinId="27"/>
-    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
-    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
-    <cellStyle name="超链接" xfId="10" builtinId="8"/>
-    <cellStyle name="百分比" xfId="11" builtinId="5"/>
-    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
-    <cellStyle name="注释" xfId="13" builtinId="10"/>
-    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
-    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
-    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
-    <cellStyle name="标题" xfId="17" builtinId="15"/>
-    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
-    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
-    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
-    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
-    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
-    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
-    <cellStyle name="输出" xfId="24" builtinId="21"/>
-    <cellStyle name="计算" xfId="25" builtinId="22"/>
-    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
-    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
-    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
-    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
-    <cellStyle name="汇总" xfId="30" builtinId="25"/>
-    <cellStyle name="好" xfId="31" builtinId="26"/>
-    <cellStyle name="适中" xfId="32" builtinId="28"/>
-    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
-    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
-    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
-    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
-    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
-    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
-    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
-    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
-    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
-    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
-    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
-    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
-    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
-    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
-    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
-    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
+    <cellStyle name="超链接" xfId="1" builtinId="8"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -1214,33 +648,33 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
-  <sheetPr/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="L12" sqref="L12"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="2" width="10.8333333333333"/>
-    <col min="3" max="3" width="11.3333333333333"/>
-    <col min="4" max="4" width="23.1666666666667"/>
-    <col min="5" max="5" width="7.83333333333333"/>
+    <col min="1" max="2" width="10.875"/>
+    <col min="3" max="3" width="11.375"/>
+    <col min="4" max="4" width="23.125"/>
+    <col min="5" max="5" width="7.875"/>
     <col min="6" max="6" width="31.375" customWidth="1"/>
     <col min="7" max="7" width="19.875" customWidth="1"/>
     <col min="8" max="8" width="15"/>
-    <col min="9" max="9" width="18.8333333333333"/>
-    <col min="10" max="10" width="19.3333333333333"/>
-    <col min="11" max="19" width="10.8333333333333"/>
+    <col min="9" max="9" width="18.875"/>
+    <col min="10" max="10" width="19.375"/>
+    <col min="11" max="19" width="10.875"/>
   </cols>
   <sheetData>
-    <row r="1" ht="40.5" spans="1:13">
+    <row r="1" spans="1:13" ht="40.5">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1281,7 +715,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" ht="65" customHeight="1" spans="1:13">
+    <row r="2" spans="1:13" ht="65.099999999999994" customHeight="1">
       <c r="A2" s="1">
         <v>1001</v>
       </c>
@@ -1291,7 +725,7 @@
       <c r="C2" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="D2" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="1" t="s">
@@ -1316,7 +750,7 @@
       </c>
       <c r="M2" s="2"/>
     </row>
-    <row r="3" ht="65" customHeight="1" spans="1:13">
+    <row r="3" spans="1:13" ht="65.099999999999994" customHeight="1">
       <c r="A3" s="1">
         <v>1002</v>
       </c>
@@ -1326,7 +760,7 @@
       <c r="C3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="1" t="s">
+      <c r="D3" s="5" t="s">
         <v>15</v>
       </c>
       <c r="E3" s="1" t="s">
@@ -1351,7 +785,7 @@
       </c>
       <c r="M3" s="2"/>
     </row>
-    <row r="4" ht="52" customHeight="1" spans="1:13">
+    <row r="4" spans="1:13" ht="51.95" customHeight="1">
       <c r="A4" s="1">
         <v>1003</v>
       </c>
@@ -1361,7 +795,7 @@
       <c r="C4" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="5" t="s">
         <v>26</v>
       </c>
       <c r="E4" s="1" t="s">
@@ -1386,7 +820,7 @@
       </c>
       <c r="M4" s="2"/>
     </row>
-    <row r="5" ht="40.5" spans="1:13">
+    <row r="5" spans="1:13" ht="40.5">
       <c r="A5" s="1">
         <v>1004</v>
       </c>
@@ -1396,7 +830,7 @@
       <c r="C5" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="5" t="s">
         <v>31</v>
       </c>
       <c r="E5" s="1" t="s">
@@ -1421,20 +855,20 @@
       </c>
       <c r="M5" s="3"/>
     </row>
-    <row r="6" ht="40.5" spans="1:13">
+    <row r="6" spans="1:13" ht="40.5">
       <c r="A6" s="2">
         <v>1005</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="3" t="s">
+      <c r="C6" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="E6" s="3" t="s">
+      <c r="E6" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F6" s="1" t="s">
@@ -1449,24 +883,24 @@
       <c r="I6" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J6" s="3"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3">
+      <c r="J6" s="6"/>
+      <c r="K6" s="6"/>
+      <c r="L6" s="6">
         <v>1</v>
       </c>
       <c r="M6" s="3"/>
     </row>
-    <row r="7" ht="40.5" spans="1:13">
+    <row r="7" spans="1:13" ht="40.5">
       <c r="A7" s="2">
         <v>1006</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E7" s="1" t="s">
@@ -1484,24 +918,24 @@
       <c r="I7" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J7" s="3"/>
-      <c r="K7" s="3"/>
-      <c r="L7" s="3">
+      <c r="J7" s="6"/>
+      <c r="K7" s="6"/>
+      <c r="L7" s="6">
         <v>1</v>
       </c>
       <c r="M7" s="3"/>
     </row>
-    <row r="8" ht="40.5" spans="1:13">
+    <row r="8" spans="1:13" ht="40.5">
       <c r="A8" s="2">
         <v>1007</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="B8" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E8" s="1" t="s">
@@ -1519,24 +953,24 @@
       <c r="I8" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3">
+      <c r="J8" s="6"/>
+      <c r="K8" s="6"/>
+      <c r="L8" s="6">
         <v>1</v>
       </c>
       <c r="M8" s="3"/>
     </row>
-    <row r="9" ht="40.5" spans="1:13">
+    <row r="9" spans="1:13" ht="40.5">
       <c r="A9" s="2">
         <v>1008</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="B9" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="C9" s="3" t="s">
+      <c r="C9" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="5" t="s">
         <v>40</v>
       </c>
       <c r="E9" s="1" t="s">
@@ -1554,24 +988,24 @@
       <c r="I9" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3">
+      <c r="J9" s="6"/>
+      <c r="K9" s="6"/>
+      <c r="L9" s="6">
         <v>1</v>
       </c>
       <c r="M9" s="3"/>
     </row>
-    <row r="10" ht="40.5" spans="1:13">
+    <row r="10" spans="1:13" ht="40.5">
       <c r="A10" s="2">
         <v>1009</v>
       </c>
-      <c r="B10" s="3" t="s">
+      <c r="B10" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="3" t="s">
+      <c r="C10" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="5" t="s">
         <v>50</v>
       </c>
       <c r="E10" s="1" t="s">
@@ -1589,24 +1023,24 @@
       <c r="I10" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-      <c r="L10" s="3">
+      <c r="J10" s="6"/>
+      <c r="K10" s="6"/>
+      <c r="L10" s="6">
         <v>1</v>
       </c>
       <c r="M10" s="3"/>
     </row>
-    <row r="11" ht="40.5" spans="1:13">
+    <row r="11" spans="1:13" ht="40.5">
       <c r="A11" s="2">
         <v>1010</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="C11" s="5" t="s">
+      <c r="C11" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="5" t="s">
         <v>54</v>
       </c>
       <c r="E11" s="1" t="s">
@@ -1624,34 +1058,34 @@
       <c r="I11" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-      <c r="L11" s="3">
+      <c r="J11" s="6"/>
+      <c r="K11" s="6"/>
+      <c r="L11" s="6">
         <v>1</v>
       </c>
       <c r="M11" s="3"/>
     </row>
-    <row r="12" ht="409.5" spans="1:13">
+    <row r="12" spans="1:13" ht="409.5">
       <c r="A12" s="2">
         <v>1011</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="B12" s="6" t="s">
         <v>55</v>
       </c>
-      <c r="C12" s="5" t="s">
+      <c r="C12" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="D12" s="6" t="s">
+      <c r="D12" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="6" t="s">
         <v>16</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>58</v>
+      <c r="G12" s="1" t="s">
+        <v>61</v>
       </c>
       <c r="H12" s="1" t="s">
         <v>22</v>
@@ -1659,25 +1093,25 @@
       <c r="I12" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3">
+      <c r="J12" s="6"/>
+      <c r="K12" s="6"/>
+      <c r="L12" s="6">
         <v>2</v>
       </c>
       <c r="M12" s="3"/>
     </row>
-    <row r="13" ht="54" spans="1:12">
+    <row r="13" spans="1:13" ht="54">
       <c r="A13" s="2">
         <v>1012</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="B13" s="6" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" s="6" t="s">
         <v>59</v>
       </c>
-      <c r="C13" s="3" t="s">
+      <c r="D13" s="5" t="s">
         <v>60</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="E13" s="1" t="s">
         <v>32</v>
@@ -1694,588 +1128,718 @@
       <c r="I13" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3">
+      <c r="J13" s="6"/>
+      <c r="K13" s="6"/>
+      <c r="L13" s="6">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="5:5">
-      <c r="E14" s="8"/>
-    </row>
-    <row r="15" spans="5:5">
-      <c r="E15" s="8"/>
-    </row>
-    <row r="16" spans="5:5">
-      <c r="E16" s="8"/>
-    </row>
-    <row r="17" spans="5:5">
-      <c r="E17" s="8"/>
-    </row>
-    <row r="18" spans="5:5">
-      <c r="E18" s="8"/>
-    </row>
-    <row r="19" spans="5:5">
-      <c r="E19" s="8"/>
-    </row>
-    <row r="20" spans="5:5">
-      <c r="E20" s="8"/>
-    </row>
-    <row r="21" spans="5:5">
-      <c r="E21" s="8"/>
-    </row>
-    <row r="22" spans="5:5">
-      <c r="E22" s="8"/>
-    </row>
-    <row r="23" spans="5:5">
-      <c r="E23" s="8"/>
-    </row>
-    <row r="24" spans="5:5">
-      <c r="E24" s="8"/>
-    </row>
-    <row r="25" spans="5:5">
-      <c r="E25" s="8"/>
-    </row>
-    <row r="26" spans="5:5">
-      <c r="E26" s="8"/>
-    </row>
-    <row r="27" spans="5:5">
-      <c r="E27" s="8"/>
-    </row>
-    <row r="28" spans="5:5">
-      <c r="E28" s="8"/>
-    </row>
-    <row r="29" spans="5:5">
-      <c r="E29" s="8"/>
-    </row>
-    <row r="30" spans="5:5">
-      <c r="E30" s="8"/>
-    </row>
-    <row r="31" spans="5:5">
-      <c r="E31" s="8"/>
-    </row>
-    <row r="32" spans="5:5">
-      <c r="E32" s="8"/>
+    <row r="14" spans="1:13" ht="40.5">
+      <c r="A14" s="2">
+        <v>1013</v>
+      </c>
+      <c r="B14" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="C14" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G14" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I14" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J14" s="6"/>
+      <c r="K14" s="6"/>
+      <c r="L14" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="94.5">
+      <c r="A15" s="2">
+        <v>1014</v>
+      </c>
+      <c r="B15" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="C15" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>67</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J15" s="6"/>
+      <c r="K15" s="6"/>
+      <c r="L15" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" ht="148.5">
+      <c r="A16" s="2">
+        <v>1015</v>
+      </c>
+      <c r="B16" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="C16" s="6" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="5" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>72</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J16" s="6"/>
+      <c r="K16" s="6"/>
+      <c r="L16" s="6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="40.5">
+      <c r="A17" s="2">
+        <v>1016</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C17" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="5" t="s">
+        <v>75</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G17" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="I17" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="J17" s="6"/>
+      <c r="K17" s="6"/>
+      <c r="L17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12">
+      <c r="E18" s="4"/>
+    </row>
+    <row r="19" spans="1:12">
+      <c r="E19" s="4"/>
+    </row>
+    <row r="20" spans="1:12">
+      <c r="E20" s="4"/>
+    </row>
+    <row r="21" spans="1:12">
+      <c r="E21" s="4"/>
+    </row>
+    <row r="22" spans="1:12">
+      <c r="E22" s="4"/>
+    </row>
+    <row r="23" spans="1:12">
+      <c r="E23" s="4"/>
+    </row>
+    <row r="24" spans="1:12">
+      <c r="E24" s="4"/>
+    </row>
+    <row r="25" spans="1:12">
+      <c r="E25" s="4"/>
+    </row>
+    <row r="26" spans="1:12">
+      <c r="E26" s="4"/>
+    </row>
+    <row r="27" spans="1:12">
+      <c r="E27" s="4"/>
+    </row>
+    <row r="28" spans="1:12">
+      <c r="E28" s="4"/>
+    </row>
+    <row r="29" spans="1:12">
+      <c r="E29" s="4"/>
+    </row>
+    <row r="30" spans="1:12">
+      <c r="E30" s="4"/>
+    </row>
+    <row r="31" spans="1:12">
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:12">
+      <c r="E32" s="4"/>
     </row>
     <row r="33" spans="5:5">
-      <c r="E33" s="8"/>
+      <c r="E33" s="4"/>
     </row>
     <row r="34" spans="5:5">
-      <c r="E34" s="8"/>
+      <c r="E34" s="4"/>
     </row>
     <row r="35" spans="5:5">
-      <c r="E35" s="8"/>
+      <c r="E35" s="4"/>
     </row>
     <row r="36" spans="5:5">
-      <c r="E36" s="8"/>
+      <c r="E36" s="4"/>
     </row>
     <row r="37" spans="5:5">
-      <c r="E37" s="8"/>
+      <c r="E37" s="4"/>
     </row>
     <row r="38" spans="5:5">
-      <c r="E38" s="8"/>
+      <c r="E38" s="4"/>
     </row>
     <row r="39" spans="5:5">
-      <c r="E39" s="8"/>
+      <c r="E39" s="4"/>
     </row>
     <row r="40" spans="5:5">
-      <c r="E40" s="8"/>
+      <c r="E40" s="4"/>
     </row>
     <row r="41" spans="5:5">
-      <c r="E41" s="8"/>
+      <c r="E41" s="4"/>
     </row>
     <row r="42" spans="5:5">
-      <c r="E42" s="8"/>
+      <c r="E42" s="4"/>
     </row>
     <row r="43" spans="5:5">
-      <c r="E43" s="8"/>
+      <c r="E43" s="4"/>
     </row>
     <row r="44" spans="5:5">
-      <c r="E44" s="8"/>
+      <c r="E44" s="4"/>
     </row>
     <row r="45" spans="5:5">
-      <c r="E45" s="8"/>
+      <c r="E45" s="4"/>
     </row>
     <row r="46" spans="5:5">
-      <c r="E46" s="8"/>
+      <c r="E46" s="4"/>
     </row>
     <row r="47" spans="5:5">
-      <c r="E47" s="8"/>
+      <c r="E47" s="4"/>
     </row>
     <row r="48" spans="5:5">
-      <c r="E48" s="8"/>
+      <c r="E48" s="4"/>
     </row>
     <row r="49" spans="5:5">
-      <c r="E49" s="8"/>
+      <c r="E49" s="4"/>
     </row>
     <row r="50" spans="5:5">
-      <c r="E50" s="8"/>
+      <c r="E50" s="4"/>
     </row>
     <row r="51" spans="5:5">
-      <c r="E51" s="8"/>
+      <c r="E51" s="4"/>
     </row>
     <row r="52" spans="5:5">
-      <c r="E52" s="8"/>
+      <c r="E52" s="4"/>
     </row>
     <row r="53" spans="5:5">
-      <c r="E53" s="8"/>
+      <c r="E53" s="4"/>
     </row>
     <row r="54" spans="5:5">
-      <c r="E54" s="8"/>
+      <c r="E54" s="4"/>
     </row>
     <row r="55" spans="5:5">
-      <c r="E55" s="8"/>
+      <c r="E55" s="4"/>
     </row>
     <row r="56" spans="5:5">
-      <c r="E56" s="8"/>
+      <c r="E56" s="4"/>
     </row>
     <row r="57" spans="5:5">
-      <c r="E57" s="8"/>
+      <c r="E57" s="4"/>
     </row>
     <row r="58" spans="5:5">
-      <c r="E58" s="8"/>
+      <c r="E58" s="4"/>
     </row>
     <row r="59" spans="5:5">
-      <c r="E59" s="8"/>
+      <c r="E59" s="4"/>
     </row>
     <row r="60" spans="5:5">
-      <c r="E60" s="8"/>
+      <c r="E60" s="4"/>
     </row>
     <row r="61" spans="5:5">
-      <c r="E61" s="8"/>
+      <c r="E61" s="4"/>
     </row>
     <row r="62" spans="5:5">
-      <c r="E62" s="8"/>
+      <c r="E62" s="4"/>
     </row>
     <row r="63" spans="5:5">
-      <c r="E63" s="8"/>
+      <c r="E63" s="4"/>
     </row>
     <row r="64" spans="5:5">
-      <c r="E64" s="8"/>
+      <c r="E64" s="4"/>
     </row>
     <row r="65" spans="5:5">
-      <c r="E65" s="8"/>
+      <c r="E65" s="4"/>
     </row>
     <row r="66" spans="5:5">
-      <c r="E66" s="8"/>
+      <c r="E66" s="4"/>
     </row>
     <row r="67" spans="5:5">
-      <c r="E67" s="8"/>
+      <c r="E67" s="4"/>
     </row>
     <row r="68" spans="5:5">
-      <c r="E68" s="8"/>
+      <c r="E68" s="4"/>
     </row>
     <row r="69" spans="5:5">
-      <c r="E69" s="8"/>
+      <c r="E69" s="4"/>
     </row>
     <row r="70" spans="5:5">
-      <c r="E70" s="8"/>
+      <c r="E70" s="4"/>
     </row>
     <row r="71" spans="5:5">
-      <c r="E71" s="8"/>
+      <c r="E71" s="4"/>
     </row>
     <row r="72" spans="5:5">
-      <c r="E72" s="8"/>
+      <c r="E72" s="4"/>
     </row>
     <row r="73" spans="5:5">
-      <c r="E73" s="8"/>
+      <c r="E73" s="4"/>
     </row>
     <row r="74" spans="5:5">
-      <c r="E74" s="8"/>
+      <c r="E74" s="4"/>
     </row>
     <row r="75" spans="5:5">
-      <c r="E75" s="8"/>
+      <c r="E75" s="4"/>
     </row>
     <row r="76" spans="5:5">
-      <c r="E76" s="8"/>
+      <c r="E76" s="4"/>
     </row>
     <row r="77" spans="5:5">
-      <c r="E77" s="8"/>
+      <c r="E77" s="4"/>
     </row>
     <row r="78" spans="5:5">
-      <c r="E78" s="8"/>
+      <c r="E78" s="4"/>
     </row>
     <row r="79" spans="5:5">
-      <c r="E79" s="8"/>
+      <c r="E79" s="4"/>
     </row>
     <row r="80" spans="5:5">
-      <c r="E80" s="8"/>
+      <c r="E80" s="4"/>
     </row>
     <row r="81" spans="5:5">
-      <c r="E81" s="8"/>
+      <c r="E81" s="4"/>
     </row>
     <row r="82" spans="5:5">
-      <c r="E82" s="8"/>
+      <c r="E82" s="4"/>
     </row>
     <row r="83" spans="5:5">
-      <c r="E83" s="8"/>
+      <c r="E83" s="4"/>
     </row>
     <row r="84" spans="5:5">
-      <c r="E84" s="8"/>
+      <c r="E84" s="4"/>
     </row>
     <row r="85" spans="5:5">
-      <c r="E85" s="8"/>
+      <c r="E85" s="4"/>
     </row>
     <row r="86" spans="5:5">
-      <c r="E86" s="8"/>
+      <c r="E86" s="4"/>
     </row>
     <row r="87" spans="5:5">
-      <c r="E87" s="8"/>
+      <c r="E87" s="4"/>
     </row>
     <row r="88" spans="5:5">
-      <c r="E88" s="8"/>
+      <c r="E88" s="4"/>
     </row>
     <row r="89" spans="5:5">
-      <c r="E89" s="8"/>
+      <c r="E89" s="4"/>
     </row>
     <row r="90" spans="5:5">
-      <c r="E90" s="8"/>
+      <c r="E90" s="4"/>
     </row>
     <row r="91" spans="5:5">
-      <c r="E91" s="8"/>
+      <c r="E91" s="4"/>
     </row>
     <row r="92" spans="5:5">
-      <c r="E92" s="8"/>
+      <c r="E92" s="4"/>
     </row>
     <row r="93" spans="5:5">
-      <c r="E93" s="8"/>
+      <c r="E93" s="4"/>
     </row>
     <row r="94" spans="5:5">
-      <c r="E94" s="8"/>
+      <c r="E94" s="4"/>
     </row>
     <row r="95" spans="5:5">
-      <c r="E95" s="8"/>
+      <c r="E95" s="4"/>
     </row>
     <row r="96" spans="5:5">
-      <c r="E96" s="8"/>
+      <c r="E96" s="4"/>
     </row>
     <row r="97" spans="5:5">
-      <c r="E97" s="8"/>
+      <c r="E97" s="4"/>
     </row>
     <row r="98" spans="5:5">
-      <c r="E98" s="8"/>
+      <c r="E98" s="4"/>
     </row>
     <row r="99" spans="5:5">
-      <c r="E99" s="8"/>
+      <c r="E99" s="4"/>
     </row>
     <row r="100" spans="5:5">
-      <c r="E100" s="8"/>
+      <c r="E100" s="4"/>
     </row>
     <row r="101" spans="5:5">
-      <c r="E101" s="8"/>
+      <c r="E101" s="4"/>
     </row>
     <row r="102" spans="5:5">
-      <c r="E102" s="8"/>
+      <c r="E102" s="4"/>
     </row>
     <row r="103" spans="5:5">
-      <c r="E103" s="8"/>
+      <c r="E103" s="4"/>
     </row>
     <row r="104" spans="5:5">
-      <c r="E104" s="8"/>
+      <c r="E104" s="4"/>
     </row>
     <row r="105" spans="5:5">
-      <c r="E105" s="8"/>
+      <c r="E105" s="4"/>
     </row>
     <row r="106" spans="5:5">
-      <c r="E106" s="8"/>
+      <c r="E106" s="4"/>
     </row>
     <row r="107" spans="5:5">
-      <c r="E107" s="8"/>
+      <c r="E107" s="4"/>
     </row>
     <row r="108" spans="5:5">
-      <c r="E108" s="8"/>
+      <c r="E108" s="4"/>
     </row>
     <row r="109" spans="5:5">
-      <c r="E109" s="8"/>
+      <c r="E109" s="4"/>
     </row>
     <row r="110" spans="5:5">
-      <c r="E110" s="8"/>
+      <c r="E110" s="4"/>
     </row>
     <row r="111" spans="5:5">
-      <c r="E111" s="8"/>
+      <c r="E111" s="4"/>
     </row>
     <row r="112" spans="5:5">
-      <c r="E112" s="8"/>
+      <c r="E112" s="4"/>
     </row>
     <row r="113" spans="5:5">
-      <c r="E113" s="8"/>
+      <c r="E113" s="4"/>
     </row>
     <row r="114" spans="5:5">
-      <c r="E114" s="8"/>
+      <c r="E114" s="4"/>
     </row>
     <row r="115" spans="5:5">
-      <c r="E115" s="8"/>
+      <c r="E115" s="4"/>
     </row>
     <row r="116" spans="5:5">
-      <c r="E116" s="8"/>
+      <c r="E116" s="4"/>
     </row>
     <row r="117" spans="5:5">
-      <c r="E117" s="8"/>
+      <c r="E117" s="4"/>
     </row>
     <row r="118" spans="5:5">
-      <c r="E118" s="8"/>
+      <c r="E118" s="4"/>
     </row>
     <row r="119" spans="5:5">
-      <c r="E119" s="8"/>
+      <c r="E119" s="4"/>
     </row>
     <row r="120" spans="5:5">
-      <c r="E120" s="8"/>
+      <c r="E120" s="4"/>
     </row>
     <row r="121" spans="5:5">
-      <c r="E121" s="8"/>
+      <c r="E121" s="4"/>
     </row>
     <row r="122" spans="5:5">
-      <c r="E122" s="8"/>
+      <c r="E122" s="4"/>
     </row>
     <row r="123" spans="5:5">
-      <c r="E123" s="8"/>
+      <c r="E123" s="4"/>
     </row>
     <row r="124" spans="5:5">
-      <c r="E124" s="8"/>
+      <c r="E124" s="4"/>
     </row>
     <row r="125" spans="5:5">
-      <c r="E125" s="8"/>
+      <c r="E125" s="4"/>
     </row>
     <row r="126" spans="5:5">
-      <c r="E126" s="8"/>
+      <c r="E126" s="4"/>
     </row>
     <row r="127" spans="5:5">
-      <c r="E127" s="8"/>
+      <c r="E127" s="4"/>
     </row>
     <row r="128" spans="5:5">
-      <c r="E128" s="8"/>
+      <c r="E128" s="4"/>
     </row>
     <row r="129" spans="5:5">
-      <c r="E129" s="8"/>
+      <c r="E129" s="4"/>
     </row>
     <row r="130" spans="5:5">
-      <c r="E130" s="8"/>
+      <c r="E130" s="4"/>
     </row>
     <row r="131" spans="5:5">
-      <c r="E131" s="8"/>
+      <c r="E131" s="4"/>
     </row>
     <row r="132" spans="5:5">
-      <c r="E132" s="8"/>
+      <c r="E132" s="4"/>
     </row>
     <row r="133" spans="5:5">
-      <c r="E133" s="8"/>
+      <c r="E133" s="4"/>
     </row>
     <row r="134" spans="5:5">
-      <c r="E134" s="8"/>
+      <c r="E134" s="4"/>
     </row>
     <row r="135" spans="5:5">
-      <c r="E135" s="8"/>
+      <c r="E135" s="4"/>
     </row>
     <row r="136" spans="5:5">
-      <c r="E136" s="8"/>
+      <c r="E136" s="4"/>
     </row>
     <row r="137" spans="5:5">
-      <c r="E137" s="8"/>
+      <c r="E137" s="4"/>
     </row>
     <row r="138" spans="5:5">
-      <c r="E138" s="8"/>
+      <c r="E138" s="4"/>
     </row>
     <row r="139" spans="5:5">
-      <c r="E139" s="8"/>
+      <c r="E139" s="4"/>
     </row>
     <row r="140" spans="5:5">
-      <c r="E140" s="8"/>
+      <c r="E140" s="4"/>
     </row>
     <row r="141" spans="5:5">
-      <c r="E141" s="8"/>
+      <c r="E141" s="4"/>
     </row>
     <row r="142" spans="5:5">
-      <c r="E142" s="8"/>
+      <c r="E142" s="4"/>
     </row>
     <row r="143" spans="5:5">
-      <c r="E143" s="8"/>
+      <c r="E143" s="4"/>
     </row>
     <row r="144" spans="5:5">
-      <c r="E144" s="8"/>
+      <c r="E144" s="4"/>
     </row>
     <row r="145" spans="5:5">
-      <c r="E145" s="8"/>
+      <c r="E145" s="4"/>
     </row>
     <row r="146" spans="5:5">
-      <c r="E146" s="8"/>
+      <c r="E146" s="4"/>
     </row>
     <row r="147" spans="5:5">
-      <c r="E147" s="8"/>
+      <c r="E147" s="4"/>
     </row>
     <row r="148" spans="5:5">
-      <c r="E148" s="8"/>
+      <c r="E148" s="4"/>
     </row>
     <row r="149" spans="5:5">
-      <c r="E149" s="8"/>
+      <c r="E149" s="4"/>
     </row>
     <row r="150" spans="5:5">
-      <c r="E150" s="8"/>
+      <c r="E150" s="4"/>
     </row>
     <row r="151" spans="5:5">
-      <c r="E151" s="8"/>
+      <c r="E151" s="4"/>
     </row>
     <row r="152" spans="5:5">
-      <c r="E152" s="8"/>
+      <c r="E152" s="4"/>
     </row>
     <row r="153" spans="5:5">
-      <c r="E153" s="8"/>
+      <c r="E153" s="4"/>
     </row>
     <row r="154" spans="5:5">
-      <c r="E154" s="8"/>
+      <c r="E154" s="4"/>
     </row>
     <row r="155" spans="5:5">
-      <c r="E155" s="8"/>
+      <c r="E155" s="4"/>
     </row>
     <row r="156" spans="5:5">
-      <c r="E156" s="8"/>
+      <c r="E156" s="4"/>
     </row>
     <row r="157" spans="5:5">
-      <c r="E157" s="8"/>
+      <c r="E157" s="4"/>
     </row>
     <row r="158" spans="5:5">
-      <c r="E158" s="8"/>
+      <c r="E158" s="4"/>
     </row>
     <row r="159" spans="5:5">
-      <c r="E159" s="8"/>
+      <c r="E159" s="4"/>
     </row>
     <row r="160" spans="5:5">
-      <c r="E160" s="8"/>
+      <c r="E160" s="4"/>
     </row>
     <row r="161" spans="5:5">
-      <c r="E161" s="8"/>
+      <c r="E161" s="4"/>
     </row>
     <row r="162" spans="5:5">
-      <c r="E162" s="8"/>
+      <c r="E162" s="4"/>
     </row>
     <row r="163" spans="5:5">
-      <c r="E163" s="8"/>
+      <c r="E163" s="4"/>
     </row>
     <row r="164" spans="5:5">
-      <c r="E164" s="8"/>
+      <c r="E164" s="4"/>
     </row>
     <row r="165" spans="5:5">
-      <c r="E165" s="8"/>
+      <c r="E165" s="4"/>
     </row>
     <row r="166" spans="5:5">
-      <c r="E166" s="8"/>
+      <c r="E166" s="4"/>
     </row>
     <row r="167" spans="5:5">
-      <c r="E167" s="8"/>
+      <c r="E167" s="4"/>
     </row>
     <row r="168" spans="5:5">
-      <c r="E168" s="8"/>
+      <c r="E168" s="4"/>
     </row>
     <row r="169" spans="5:5">
-      <c r="E169" s="8"/>
+      <c r="E169" s="4"/>
     </row>
     <row r="170" spans="5:5">
-      <c r="E170" s="8"/>
+      <c r="E170" s="4"/>
     </row>
     <row r="171" spans="5:5">
-      <c r="E171" s="8"/>
+      <c r="E171" s="4"/>
     </row>
     <row r="172" spans="5:5">
-      <c r="E172" s="8"/>
+      <c r="E172" s="4"/>
     </row>
     <row r="173" spans="5:5">
-      <c r="E173" s="8"/>
+      <c r="E173" s="4"/>
     </row>
     <row r="174" spans="5:5">
-      <c r="E174" s="8"/>
+      <c r="E174" s="4"/>
     </row>
     <row r="175" spans="5:5">
-      <c r="E175" s="8"/>
+      <c r="E175" s="4"/>
     </row>
     <row r="176" spans="5:5">
-      <c r="E176" s="8"/>
+      <c r="E176" s="4"/>
     </row>
     <row r="177" spans="5:5">
-      <c r="E177" s="8"/>
+      <c r="E177" s="4"/>
     </row>
     <row r="178" spans="5:5">
-      <c r="E178" s="8"/>
+      <c r="E178" s="4"/>
     </row>
     <row r="179" spans="5:5">
-      <c r="E179" s="8"/>
+      <c r="E179" s="4"/>
     </row>
     <row r="180" spans="5:5">
-      <c r="E180" s="8"/>
+      <c r="E180" s="4"/>
     </row>
     <row r="181" spans="5:5">
-      <c r="E181" s="8"/>
+      <c r="E181" s="4"/>
     </row>
     <row r="182" spans="5:5">
-      <c r="E182" s="8"/>
+      <c r="E182" s="4"/>
     </row>
     <row r="183" spans="5:5">
-      <c r="E183" s="8"/>
+      <c r="E183" s="4"/>
     </row>
     <row r="184" spans="5:5">
-      <c r="E184" s="8"/>
+      <c r="E184" s="4"/>
     </row>
     <row r="185" spans="5:5">
-      <c r="E185" s="8"/>
+      <c r="E185" s="4"/>
     </row>
     <row r="186" spans="5:5">
-      <c r="E186" s="8"/>
+      <c r="E186" s="4"/>
     </row>
     <row r="187" spans="5:5">
-      <c r="E187" s="8"/>
+      <c r="E187" s="4"/>
     </row>
     <row r="188" spans="5:5">
-      <c r="E188" s="8"/>
+      <c r="E188" s="4"/>
     </row>
     <row r="189" spans="5:5">
-      <c r="E189" s="8"/>
+      <c r="E189" s="4"/>
     </row>
     <row r="190" spans="5:5">
-      <c r="E190" s="8"/>
+      <c r="E190" s="4"/>
     </row>
     <row r="191" spans="5:5">
-      <c r="E191" s="8"/>
+      <c r="E191" s="4"/>
     </row>
     <row r="192" spans="5:5">
-      <c r="E192" s="8"/>
+      <c r="E192" s="4"/>
     </row>
     <row r="193" spans="5:5">
-      <c r="E193" s="8"/>
+      <c r="E193" s="4"/>
     </row>
     <row r="194" spans="5:5">
-      <c r="E194" s="8"/>
+      <c r="E194" s="4"/>
     </row>
     <row r="195" spans="5:5">
-      <c r="E195" s="8"/>
+      <c r="E195" s="4"/>
     </row>
     <row r="196" spans="5:5">
-      <c r="E196" s="8"/>
+      <c r="E196" s="4"/>
     </row>
     <row r="197" spans="5:5">
-      <c r="E197" s="8"/>
+      <c r="E197" s="4"/>
     </row>
     <row r="198" spans="5:5">
-      <c r="E198" s="8"/>
+      <c r="E198" s="4"/>
     </row>
     <row r="199" spans="5:5">
-      <c r="E199" s="8"/>
+      <c r="E199" s="4"/>
     </row>
     <row r="200" spans="5:5">
-      <c r="E200" s="8"/>
+      <c r="E200" s="4"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="7" type="noConversion"/>
   <hyperlinks>
-    <hyperlink ref="D2" r:id="rId1" display="http://115.236.35.106:9000/api/product/coupon/receiver" tooltip="http://115.236.35.106:9000/api/product/coupon/receiver"/>
-    <hyperlink ref="D3" r:id="rId1" display="http://115.236.35.106:9000/api/product/coupon/receiver" tooltip="http://115.236.35.106:9000/api/product/coupon/receiver"/>
-    <hyperlink ref="D5" r:id="rId2" display="http://115.236.35.106:9000/api/adv/faster/meida/list" tooltip="http://115.236.35.106:9000/api/adv/faster/meida/list"/>
-    <hyperlink ref="D6" r:id="rId3" display="http://115.236.35.106:9000/api/faster/radar/point/search" tooltip="http://115.236.35.106:9000/api/faster/radar/point/search"/>
-    <hyperlink ref="D7" r:id="rId4" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
-    <hyperlink ref="D8" r:id="rId4" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
-    <hyperlink ref="D9" r:id="rId4" display="http://115.236.35.106:9000/api/adv/faster/list" tooltip="http://115.236.35.106:9000/api/adv/faster/list"/>
-    <hyperlink ref="D10" r:id="rId5" display="http://115.236.35.106:9000/api/adv/faster/example" tooltip="http://115.236.35.106:9000/api/adv/faster/example"/>
-    <hyperlink ref="D11" r:id="rId6" display="http://115.236.35.106:9000/api/faster/adv/radar/point/newlist" tooltip="http://115.236.35.106:9000/api/faster/adv/radar/point/newlist"/>
-    <hyperlink ref="D12" r:id="rId7" display="http://115.236.35.106:9000/api/adv/faster/save" tooltip="http://115.236.35.106:9000/api/adv/faster/save"/>
-    <hyperlink ref="D13" r:id="rId8" display="http://115.236.35.106:9000/api/adv/faster/company/certification/list" tooltip="http://115.236.35.106:9000/api/adv/faster/company/certification/list"/>
+    <hyperlink ref="D2" r:id="rId1" xr:uid="{C8135923-039F-4804-99C2-98AF571AE6C7}"/>
+    <hyperlink ref="D3" r:id="rId2" xr:uid="{9E9F39BB-6655-4A22-9121-1A1DA7BFAE67}"/>
+    <hyperlink ref="D4" r:id="rId3" xr:uid="{86407CF8-2B7C-43D9-9D9E-A6496609A292}"/>
+    <hyperlink ref="D5" r:id="rId4" xr:uid="{AAF28A5E-14EF-4CFC-BE8C-79DBC2FB45B6}"/>
+    <hyperlink ref="D6" r:id="rId5" xr:uid="{237E1799-F8F7-425F-9666-ED3E71D83BB8}"/>
+    <hyperlink ref="D7" r:id="rId6" xr:uid="{4950F6C3-ACD6-432B-8297-E65B6E75590C}"/>
+    <hyperlink ref="D8" r:id="rId7" xr:uid="{827F2190-6987-40B9-8CCC-FB5B248D1AF3}"/>
+    <hyperlink ref="D9" r:id="rId8" xr:uid="{ACB195F5-401B-4478-BBE9-AAEEA57D9C40}"/>
+    <hyperlink ref="D10" r:id="rId9" xr:uid="{DAFC89AD-8881-46B6-9CB2-A45043FDE58B}"/>
+    <hyperlink ref="D11" r:id="rId10" xr:uid="{F76B0FDA-12D6-49C7-9639-2DD1EA013E96}"/>
+    <hyperlink ref="D12" r:id="rId11" xr:uid="{873D70FE-86B1-4FCA-8FF4-EF12D37ECED2}"/>
+    <hyperlink ref="D13" r:id="rId12" xr:uid="{E14071DF-4C5E-4D80-8A63-DE4003A916B3}"/>
+    <hyperlink ref="D14" r:id="rId13" xr:uid="{3F9ECA1A-9127-4785-9015-E3D1B296129E}"/>
+    <hyperlink ref="D15" r:id="rId14" xr:uid="{F2D4D458-CF33-4B99-AC6F-38236334CB00}"/>
+    <hyperlink ref="D16" r:id="rId15" xr:uid="{71524611-95F2-4DC8-8A3F-2D0D9CD1DA19}"/>
+    <hyperlink ref="D17" r:id="rId16" xr:uid="{C816D6EB-DD12-45A4-923A-71A2403820CA}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <headerFooter/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId17"/>
 </worksheet>
 </file>